--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Demoblaze-playwright\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A05F2F-6219-4B49-891C-CBA73866A220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3BCB69-2FE1-4F32-8C70-39747127670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{739BE312-AA31-4B31-A566-DB081319E3AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{739BE312-AA31-4B31-A566-DB081319E3AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="260">
   <si>
     <t xml:space="preserve">Pre-condition:  </t>
   </si>
@@ -1155,6 +1155,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pass </t>
+  </si>
+  <si>
+    <t>Covered</t>
   </si>
 </sst>
 </file>
@@ -1652,6 +1655,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1660,33 +1690,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3520,8 +3523,8 @@
   </sheetPr>
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:K16"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77:K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3620,7 +3623,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="68">
+      <c r="A9" s="77">
         <v>1</v>
       </c>
       <c r="B9" s="59" t="s">
@@ -3631,7 +3634,7 @@
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="46"/>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="77" t="s">
         <v>227</v>
       </c>
       <c r="G9" s="53" t="s">
@@ -3658,12 +3661,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="59"/>
       <c r="C10" s="47"/>
       <c r="D10" s="48"/>
       <c r="E10" s="49"/>
-      <c r="F10" s="69"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="54"/>
       <c r="H10" s="47"/>
       <c r="I10" s="49"/>
@@ -3678,12 +3681,12 @@
       <c r="P10" s="66"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="59"/>
       <c r="C11" s="47"/>
       <c r="D11" s="48"/>
       <c r="E11" s="49"/>
-      <c r="F11" s="69"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="54"/>
       <c r="H11" s="47"/>
       <c r="I11" s="49"/>
@@ -3698,12 +3701,12 @@
       <c r="P11" s="66"/>
     </row>
     <row r="12" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="59"/>
       <c r="C12" s="47"/>
       <c r="D12" s="48"/>
       <c r="E12" s="49"/>
-      <c r="F12" s="70"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="55"/>
       <c r="H12" s="50"/>
       <c r="I12" s="52"/>
@@ -3718,7 +3721,7 @@
       <c r="P12" s="67"/>
     </row>
     <row r="13" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68">
+      <c r="A13" s="77">
         <v>2</v>
       </c>
       <c r="B13" s="59" t="s">
@@ -3727,7 +3730,7 @@
       <c r="C13" s="47"/>
       <c r="D13" s="48"/>
       <c r="E13" s="49"/>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="77" t="s">
         <v>228</v>
       </c>
       <c r="G13" s="53" t="s">
@@ -3754,12 +3757,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="59"/>
       <c r="C14" s="47"/>
       <c r="D14" s="48"/>
       <c r="E14" s="49"/>
-      <c r="F14" s="69"/>
+      <c r="F14" s="78"/>
       <c r="G14" s="54"/>
       <c r="H14" s="47"/>
       <c r="I14" s="49"/>
@@ -3774,12 +3777,12 @@
       <c r="P14" s="66"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="59"/>
       <c r="C15" s="47"/>
       <c r="D15" s="48"/>
       <c r="E15" s="49"/>
-      <c r="F15" s="69"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="54"/>
       <c r="H15" s="47"/>
       <c r="I15" s="49"/>
@@ -3794,12 +3797,12 @@
       <c r="P15" s="66"/>
     </row>
     <row r="16" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="59"/>
       <c r="C16" s="47"/>
       <c r="D16" s="48"/>
       <c r="E16" s="49"/>
-      <c r="F16" s="70"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="55"/>
       <c r="H16" s="50"/>
       <c r="I16" s="52"/>
@@ -3814,7 +3817,7 @@
       <c r="P16" s="67"/>
     </row>
     <row r="17" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68">
+      <c r="A17" s="77">
         <v>3</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -3823,7 +3826,7 @@
       <c r="C17" s="47"/>
       <c r="D17" s="48"/>
       <c r="E17" s="49"/>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="77" t="s">
         <v>227</v>
       </c>
       <c r="G17" s="53" t="s">
@@ -3850,12 +3853,12 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="59"/>
       <c r="C18" s="47"/>
       <c r="D18" s="48"/>
       <c r="E18" s="49"/>
-      <c r="F18" s="69"/>
+      <c r="F18" s="78"/>
       <c r="G18" s="54"/>
       <c r="H18" s="47"/>
       <c r="I18" s="49"/>
@@ -3868,12 +3871,12 @@
       <c r="P18" s="66"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="59"/>
       <c r="C19" s="47"/>
       <c r="D19" s="48"/>
       <c r="E19" s="49"/>
-      <c r="F19" s="69"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="54"/>
       <c r="H19" s="47"/>
       <c r="I19" s="49"/>
@@ -3886,12 +3889,12 @@
       <c r="P19" s="66"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="59"/>
       <c r="C20" s="50"/>
       <c r="D20" s="51"/>
       <c r="E20" s="52"/>
-      <c r="F20" s="70"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="55"/>
       <c r="H20" s="50"/>
       <c r="I20" s="52"/>
@@ -3904,7 +3907,7 @@
       <c r="P20" s="67"/>
     </row>
     <row r="21" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="68">
+      <c r="A21" s="77">
         <v>4</v>
       </c>
       <c r="B21" s="59" t="s">
@@ -3915,7 +3918,7 @@
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="77" t="s">
         <v>227</v>
       </c>
       <c r="G21" s="53" t="s">
@@ -3937,17 +3940,17 @@
         <v>98</v>
       </c>
       <c r="O21" s="46"/>
-      <c r="P21" s="68" t="s">
-        <v>229</v>
+      <c r="P21" s="65" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="59"/>
       <c r="C22" s="47"/>
       <c r="D22" s="48"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="69"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="54"/>
       <c r="H22" s="47"/>
       <c r="I22" s="49"/>
@@ -3959,15 +3962,15 @@
       <c r="M22" s="49"/>
       <c r="N22" s="47"/>
       <c r="O22" s="49"/>
-      <c r="P22" s="69"/>
+      <c r="P22" s="66"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="59"/>
       <c r="C23" s="47"/>
       <c r="D23" s="48"/>
       <c r="E23" s="49"/>
-      <c r="F23" s="69"/>
+      <c r="F23" s="78"/>
       <c r="G23" s="54"/>
       <c r="H23" s="47"/>
       <c r="I23" s="49"/>
@@ -3979,15 +3982,15 @@
       <c r="M23" s="49"/>
       <c r="N23" s="47"/>
       <c r="O23" s="49"/>
-      <c r="P23" s="69"/>
+      <c r="P23" s="66"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="59"/>
       <c r="C24" s="47"/>
       <c r="D24" s="48"/>
       <c r="E24" s="49"/>
-      <c r="F24" s="70"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="55"/>
       <c r="H24" s="50"/>
       <c r="I24" s="52"/>
@@ -3997,10 +4000,10 @@
       <c r="M24" s="52"/>
       <c r="N24" s="50"/>
       <c r="O24" s="52"/>
-      <c r="P24" s="70"/>
+      <c r="P24" s="67"/>
     </row>
     <row r="25" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="68">
+      <c r="A25" s="77">
         <v>5</v>
       </c>
       <c r="B25" s="59" t="s">
@@ -4009,7 +4012,7 @@
       <c r="C25" s="47"/>
       <c r="D25" s="48"/>
       <c r="E25" s="49"/>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="77" t="s">
         <v>228</v>
       </c>
       <c r="G25" s="53" t="s">
@@ -4031,17 +4034,17 @@
         <v>103</v>
       </c>
       <c r="O25" s="46"/>
-      <c r="P25" s="68" t="s">
-        <v>229</v>
+      <c r="P25" s="65" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="59"/>
       <c r="C26" s="47"/>
       <c r="D26" s="48"/>
       <c r="E26" s="49"/>
-      <c r="F26" s="69"/>
+      <c r="F26" s="78"/>
       <c r="G26" s="54"/>
       <c r="H26" s="47"/>
       <c r="I26" s="49"/>
@@ -4053,15 +4056,15 @@
       <c r="M26" s="49"/>
       <c r="N26" s="47"/>
       <c r="O26" s="49"/>
-      <c r="P26" s="69"/>
+      <c r="P26" s="66"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="59"/>
       <c r="C27" s="47"/>
       <c r="D27" s="48"/>
       <c r="E27" s="49"/>
-      <c r="F27" s="69"/>
+      <c r="F27" s="78"/>
       <c r="G27" s="54"/>
       <c r="H27" s="47"/>
       <c r="I27" s="49"/>
@@ -4073,15 +4076,15 @@
       <c r="M27" s="49"/>
       <c r="N27" s="47"/>
       <c r="O27" s="49"/>
-      <c r="P27" s="69"/>
+      <c r="P27" s="66"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="70"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="59"/>
       <c r="C28" s="50"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
-      <c r="F28" s="70"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="55"/>
       <c r="H28" s="50"/>
       <c r="I28" s="52"/>
@@ -4091,10 +4094,10 @@
       <c r="M28" s="52"/>
       <c r="N28" s="50"/>
       <c r="O28" s="52"/>
-      <c r="P28" s="70"/>
+      <c r="P28" s="67"/>
     </row>
     <row r="29" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="68">
+      <c r="A29" s="77">
         <v>6</v>
       </c>
       <c r="B29" s="59" t="s">
@@ -4105,7 +4108,7 @@
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="46"/>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="77" t="s">
         <v>227</v>
       </c>
       <c r="G29" s="53" t="s">
@@ -4127,17 +4130,17 @@
         <v>48</v>
       </c>
       <c r="O29" s="46"/>
-      <c r="P29" s="68" t="s">
+      <c r="P29" s="77" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
+      <c r="A30" s="78"/>
       <c r="B30" s="59"/>
       <c r="C30" s="47"/>
       <c r="D30" s="48"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="69"/>
+      <c r="F30" s="78"/>
       <c r="G30" s="54"/>
       <c r="H30" s="47"/>
       <c r="I30" s="49"/>
@@ -4147,15 +4150,15 @@
       <c r="M30" s="49"/>
       <c r="N30" s="47"/>
       <c r="O30" s="49"/>
-      <c r="P30" s="69"/>
+      <c r="P30" s="78"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
+      <c r="A31" s="78"/>
       <c r="B31" s="59"/>
       <c r="C31" s="47"/>
       <c r="D31" s="48"/>
       <c r="E31" s="49"/>
-      <c r="F31" s="69"/>
+      <c r="F31" s="78"/>
       <c r="G31" s="54"/>
       <c r="H31" s="47"/>
       <c r="I31" s="49"/>
@@ -4165,15 +4168,15 @@
       <c r="M31" s="49"/>
       <c r="N31" s="47"/>
       <c r="O31" s="49"/>
-      <c r="P31" s="69"/>
+      <c r="P31" s="78"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="70"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="59"/>
       <c r="C32" s="47"/>
       <c r="D32" s="48"/>
       <c r="E32" s="49"/>
-      <c r="F32" s="70"/>
+      <c r="F32" s="79"/>
       <c r="G32" s="55"/>
       <c r="H32" s="50"/>
       <c r="I32" s="52"/>
@@ -4183,10 +4186,10 @@
       <c r="M32" s="52"/>
       <c r="N32" s="50"/>
       <c r="O32" s="52"/>
-      <c r="P32" s="70"/>
+      <c r="P32" s="79"/>
     </row>
     <row r="33" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="68">
+      <c r="A33" s="77">
         <v>7</v>
       </c>
       <c r="B33" s="59" t="s">
@@ -4195,7 +4198,7 @@
       <c r="C33" s="47"/>
       <c r="D33" s="48"/>
       <c r="E33" s="49"/>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="77" t="s">
         <v>227</v>
       </c>
       <c r="G33" s="53" t="s">
@@ -4217,17 +4220,17 @@
         <v>45</v>
       </c>
       <c r="O33" s="46"/>
-      <c r="P33" s="68" t="s">
+      <c r="P33" s="77" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="69"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="59"/>
       <c r="C34" s="47"/>
       <c r="D34" s="48"/>
       <c r="E34" s="49"/>
-      <c r="F34" s="69"/>
+      <c r="F34" s="78"/>
       <c r="G34" s="54"/>
       <c r="H34" s="47"/>
       <c r="I34" s="49"/>
@@ -4237,15 +4240,15 @@
       <c r="M34" s="49"/>
       <c r="N34" s="47"/>
       <c r="O34" s="49"/>
-      <c r="P34" s="69"/>
+      <c r="P34" s="78"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="59"/>
       <c r="C35" s="47"/>
       <c r="D35" s="48"/>
       <c r="E35" s="49"/>
-      <c r="F35" s="69"/>
+      <c r="F35" s="78"/>
       <c r="G35" s="54"/>
       <c r="H35" s="47"/>
       <c r="I35" s="49"/>
@@ -4255,15 +4258,15 @@
       <c r="M35" s="49"/>
       <c r="N35" s="47"/>
       <c r="O35" s="49"/>
-      <c r="P35" s="69"/>
+      <c r="P35" s="78"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="70"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="59"/>
       <c r="C36" s="47"/>
       <c r="D36" s="48"/>
       <c r="E36" s="49"/>
-      <c r="F36" s="70"/>
+      <c r="F36" s="79"/>
       <c r="G36" s="55"/>
       <c r="H36" s="50"/>
       <c r="I36" s="52"/>
@@ -4273,10 +4276,10 @@
       <c r="M36" s="52"/>
       <c r="N36" s="50"/>
       <c r="O36" s="52"/>
-      <c r="P36" s="70"/>
+      <c r="P36" s="79"/>
     </row>
     <row r="37" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="68">
+      <c r="A37" s="77">
         <v>8</v>
       </c>
       <c r="B37" s="59" t="s">
@@ -4285,7 +4288,7 @@
       <c r="C37" s="47"/>
       <c r="D37" s="48"/>
       <c r="E37" s="49"/>
-      <c r="F37" s="68" t="s">
+      <c r="F37" s="77" t="s">
         <v>227</v>
       </c>
       <c r="G37" s="53" t="s">
@@ -4307,17 +4310,17 @@
         <v>51</v>
       </c>
       <c r="O37" s="46"/>
-      <c r="P37" s="68" t="s">
+      <c r="P37" s="77" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="69"/>
+      <c r="A38" s="78"/>
       <c r="B38" s="59"/>
       <c r="C38" s="47"/>
       <c r="D38" s="48"/>
       <c r="E38" s="49"/>
-      <c r="F38" s="69"/>
+      <c r="F38" s="78"/>
       <c r="G38" s="54"/>
       <c r="H38" s="47"/>
       <c r="I38" s="49"/>
@@ -4327,15 +4330,15 @@
       <c r="M38" s="49"/>
       <c r="N38" s="47"/>
       <c r="O38" s="49"/>
-      <c r="P38" s="69"/>
+      <c r="P38" s="78"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="69"/>
+      <c r="A39" s="78"/>
       <c r="B39" s="59"/>
       <c r="C39" s="47"/>
       <c r="D39" s="48"/>
       <c r="E39" s="49"/>
-      <c r="F39" s="69"/>
+      <c r="F39" s="78"/>
       <c r="G39" s="54"/>
       <c r="H39" s="47"/>
       <c r="I39" s="49"/>
@@ -4345,15 +4348,15 @@
       <c r="M39" s="49"/>
       <c r="N39" s="47"/>
       <c r="O39" s="49"/>
-      <c r="P39" s="69"/>
+      <c r="P39" s="78"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="70"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="59"/>
       <c r="C40" s="47"/>
       <c r="D40" s="48"/>
       <c r="E40" s="49"/>
-      <c r="F40" s="70"/>
+      <c r="F40" s="79"/>
       <c r="G40" s="55"/>
       <c r="H40" s="50"/>
       <c r="I40" s="52"/>
@@ -4363,10 +4366,10 @@
       <c r="M40" s="52"/>
       <c r="N40" s="50"/>
       <c r="O40" s="52"/>
-      <c r="P40" s="70"/>
+      <c r="P40" s="79"/>
     </row>
     <row r="41" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="68">
+      <c r="A41" s="77">
         <v>9</v>
       </c>
       <c r="B41" s="59" t="s">
@@ -4375,7 +4378,7 @@
       <c r="C41" s="47"/>
       <c r="D41" s="48"/>
       <c r="E41" s="49"/>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="77" t="s">
         <v>227</v>
       </c>
       <c r="G41" s="53" t="s">
@@ -4397,17 +4400,17 @@
         <v>55</v>
       </c>
       <c r="O41" s="46"/>
-      <c r="P41" s="68" t="s">
+      <c r="P41" s="77" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="59"/>
       <c r="C42" s="47"/>
       <c r="D42" s="48"/>
       <c r="E42" s="49"/>
-      <c r="F42" s="69"/>
+      <c r="F42" s="78"/>
       <c r="G42" s="54"/>
       <c r="H42" s="47"/>
       <c r="I42" s="49"/>
@@ -4417,15 +4420,15 @@
       <c r="M42" s="49"/>
       <c r="N42" s="47"/>
       <c r="O42" s="49"/>
-      <c r="P42" s="69"/>
+      <c r="P42" s="78"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="69"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="59"/>
       <c r="C43" s="47"/>
       <c r="D43" s="48"/>
       <c r="E43" s="49"/>
-      <c r="F43" s="69"/>
+      <c r="F43" s="78"/>
       <c r="G43" s="54"/>
       <c r="H43" s="47"/>
       <c r="I43" s="49"/>
@@ -4435,15 +4438,15 @@
       <c r="M43" s="49"/>
       <c r="N43" s="47"/>
       <c r="O43" s="49"/>
-      <c r="P43" s="69"/>
+      <c r="P43" s="78"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="70"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="59"/>
       <c r="C44" s="47"/>
       <c r="D44" s="48"/>
       <c r="E44" s="49"/>
-      <c r="F44" s="70"/>
+      <c r="F44" s="79"/>
       <c r="G44" s="55"/>
       <c r="H44" s="50"/>
       <c r="I44" s="52"/>
@@ -4453,10 +4456,10 @@
       <c r="M44" s="52"/>
       <c r="N44" s="50"/>
       <c r="O44" s="52"/>
-      <c r="P44" s="70"/>
+      <c r="P44" s="79"/>
     </row>
     <row r="45" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="68">
+      <c r="A45" s="77">
         <v>10</v>
       </c>
       <c r="B45" s="59" t="s">
@@ -4465,7 +4468,7 @@
       <c r="C45" s="47"/>
       <c r="D45" s="48"/>
       <c r="E45" s="49"/>
-      <c r="F45" s="68" t="s">
+      <c r="F45" s="77" t="s">
         <v>227</v>
       </c>
       <c r="G45" s="53" t="s">
@@ -4487,17 +4490,17 @@
         <v>59</v>
       </c>
       <c r="O45" s="46"/>
-      <c r="P45" s="68" t="s">
+      <c r="P45" s="77" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="69"/>
+      <c r="A46" s="78"/>
       <c r="B46" s="59"/>
       <c r="C46" s="47"/>
       <c r="D46" s="48"/>
       <c r="E46" s="49"/>
-      <c r="F46" s="69"/>
+      <c r="F46" s="78"/>
       <c r="G46" s="54"/>
       <c r="H46" s="47"/>
       <c r="I46" s="49"/>
@@ -4507,15 +4510,15 @@
       <c r="M46" s="49"/>
       <c r="N46" s="47"/>
       <c r="O46" s="49"/>
-      <c r="P46" s="69"/>
+      <c r="P46" s="78"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="69"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="59"/>
       <c r="C47" s="47"/>
       <c r="D47" s="48"/>
       <c r="E47" s="49"/>
-      <c r="F47" s="69"/>
+      <c r="F47" s="78"/>
       <c r="G47" s="54"/>
       <c r="H47" s="47"/>
       <c r="I47" s="49"/>
@@ -4525,15 +4528,15 @@
       <c r="M47" s="49"/>
       <c r="N47" s="47"/>
       <c r="O47" s="49"/>
-      <c r="P47" s="69"/>
+      <c r="P47" s="78"/>
     </row>
     <row r="48" spans="1:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="70"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="59"/>
       <c r="C48" s="47"/>
       <c r="D48" s="48"/>
       <c r="E48" s="49"/>
-      <c r="F48" s="70"/>
+      <c r="F48" s="79"/>
       <c r="G48" s="55"/>
       <c r="H48" s="50"/>
       <c r="I48" s="52"/>
@@ -4543,10 +4546,10 @@
       <c r="M48" s="52"/>
       <c r="N48" s="50"/>
       <c r="O48" s="52"/>
-      <c r="P48" s="70"/>
+      <c r="P48" s="79"/>
     </row>
     <row r="49" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="68">
+      <c r="A49" s="77">
         <v>11</v>
       </c>
       <c r="B49" s="59" t="s">
@@ -4555,7 +4558,7 @@
       <c r="C49" s="47"/>
       <c r="D49" s="48"/>
       <c r="E49" s="49"/>
-      <c r="F49" s="68" t="s">
+      <c r="F49" s="77" t="s">
         <v>227</v>
       </c>
       <c r="G49" s="53" t="s">
@@ -4577,17 +4580,17 @@
         <v>64</v>
       </c>
       <c r="O49" s="46"/>
-      <c r="P49" s="68" t="s">
+      <c r="P49" s="77" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
+      <c r="A50" s="78"/>
       <c r="B50" s="59"/>
       <c r="C50" s="47"/>
       <c r="D50" s="48"/>
       <c r="E50" s="49"/>
-      <c r="F50" s="69"/>
+      <c r="F50" s="78"/>
       <c r="G50" s="54"/>
       <c r="H50" s="47"/>
       <c r="I50" s="49"/>
@@ -4597,15 +4600,15 @@
       <c r="M50" s="49"/>
       <c r="N50" s="47"/>
       <c r="O50" s="49"/>
-      <c r="P50" s="69"/>
+      <c r="P50" s="78"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
+      <c r="A51" s="78"/>
       <c r="B51" s="59"/>
       <c r="C51" s="47"/>
       <c r="D51" s="48"/>
       <c r="E51" s="49"/>
-      <c r="F51" s="69"/>
+      <c r="F51" s="78"/>
       <c r="G51" s="54"/>
       <c r="H51" s="47"/>
       <c r="I51" s="49"/>
@@ -4615,15 +4618,15 @@
       <c r="M51" s="49"/>
       <c r="N51" s="47"/>
       <c r="O51" s="49"/>
-      <c r="P51" s="69"/>
+      <c r="P51" s="78"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="70"/>
+      <c r="A52" s="79"/>
       <c r="B52" s="59"/>
       <c r="C52" s="47"/>
       <c r="D52" s="48"/>
       <c r="E52" s="49"/>
-      <c r="F52" s="70"/>
+      <c r="F52" s="79"/>
       <c r="G52" s="55"/>
       <c r="H52" s="50"/>
       <c r="I52" s="52"/>
@@ -4633,10 +4636,10 @@
       <c r="M52" s="52"/>
       <c r="N52" s="50"/>
       <c r="O52" s="52"/>
-      <c r="P52" s="70"/>
+      <c r="P52" s="79"/>
     </row>
     <row r="53" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="68">
+      <c r="A53" s="77">
         <v>12</v>
       </c>
       <c r="B53" s="59" t="s">
@@ -4645,7 +4648,7 @@
       <c r="C53" s="47"/>
       <c r="D53" s="48"/>
       <c r="E53" s="49"/>
-      <c r="F53" s="68" t="s">
+      <c r="F53" s="77" t="s">
         <v>227</v>
       </c>
       <c r="G53" s="53" t="s">
@@ -4667,17 +4670,17 @@
         <v>70</v>
       </c>
       <c r="O53" s="46"/>
-      <c r="P53" s="68" t="s">
+      <c r="P53" s="77" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="69"/>
+      <c r="A54" s="78"/>
       <c r="B54" s="59"/>
       <c r="C54" s="47"/>
       <c r="D54" s="48"/>
       <c r="E54" s="49"/>
-      <c r="F54" s="69"/>
+      <c r="F54" s="78"/>
       <c r="G54" s="54"/>
       <c r="H54" s="47"/>
       <c r="I54" s="49"/>
@@ -4687,15 +4690,15 @@
       <c r="M54" s="49"/>
       <c r="N54" s="47"/>
       <c r="O54" s="49"/>
-      <c r="P54" s="69"/>
+      <c r="P54" s="78"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="69"/>
+      <c r="A55" s="78"/>
       <c r="B55" s="59"/>
       <c r="C55" s="47"/>
       <c r="D55" s="48"/>
       <c r="E55" s="49"/>
-      <c r="F55" s="69"/>
+      <c r="F55" s="78"/>
       <c r="G55" s="54"/>
       <c r="H55" s="47"/>
       <c r="I55" s="49"/>
@@ -4705,15 +4708,15 @@
       <c r="M55" s="49"/>
       <c r="N55" s="47"/>
       <c r="O55" s="49"/>
-      <c r="P55" s="69"/>
+      <c r="P55" s="78"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="70"/>
+      <c r="A56" s="79"/>
       <c r="B56" s="59"/>
       <c r="C56" s="50"/>
       <c r="D56" s="51"/>
       <c r="E56" s="52"/>
-      <c r="F56" s="70"/>
+      <c r="F56" s="79"/>
       <c r="G56" s="55"/>
       <c r="H56" s="50"/>
       <c r="I56" s="52"/>
@@ -4723,10 +4726,10 @@
       <c r="M56" s="52"/>
       <c r="N56" s="50"/>
       <c r="O56" s="52"/>
-      <c r="P56" s="70"/>
+      <c r="P56" s="79"/>
     </row>
     <row r="57" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="68">
+      <c r="A57" s="77">
         <v>13</v>
       </c>
       <c r="B57" s="59" t="s">
@@ -4737,7 +4740,7 @@
       </c>
       <c r="D57" s="45"/>
       <c r="E57" s="46"/>
-      <c r="F57" s="68" t="s">
+      <c r="F57" s="77" t="s">
         <v>227</v>
       </c>
       <c r="G57" s="53" t="s">
@@ -4759,17 +4762,17 @@
         <v>84</v>
       </c>
       <c r="O57" s="46"/>
-      <c r="P57" s="68" t="s">
+      <c r="P57" s="77" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="69"/>
+      <c r="A58" s="78"/>
       <c r="B58" s="59"/>
       <c r="C58" s="47"/>
       <c r="D58" s="48"/>
       <c r="E58" s="49"/>
-      <c r="F58" s="69"/>
+      <c r="F58" s="78"/>
       <c r="G58" s="54"/>
       <c r="H58" s="47"/>
       <c r="I58" s="49"/>
@@ -4779,15 +4782,15 @@
       <c r="M58" s="49"/>
       <c r="N58" s="47"/>
       <c r="O58" s="49"/>
-      <c r="P58" s="69"/>
+      <c r="P58" s="78"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="69"/>
+      <c r="A59" s="78"/>
       <c r="B59" s="59"/>
       <c r="C59" s="47"/>
       <c r="D59" s="48"/>
       <c r="E59" s="49"/>
-      <c r="F59" s="69"/>
+      <c r="F59" s="78"/>
       <c r="G59" s="54"/>
       <c r="H59" s="47"/>
       <c r="I59" s="49"/>
@@ -4797,15 +4800,15 @@
       <c r="M59" s="49"/>
       <c r="N59" s="47"/>
       <c r="O59" s="49"/>
-      <c r="P59" s="69"/>
+      <c r="P59" s="78"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="70"/>
+      <c r="A60" s="79"/>
       <c r="B60" s="59"/>
       <c r="C60" s="47"/>
       <c r="D60" s="48"/>
       <c r="E60" s="49"/>
-      <c r="F60" s="70"/>
+      <c r="F60" s="79"/>
       <c r="G60" s="55"/>
       <c r="H60" s="50"/>
       <c r="I60" s="52"/>
@@ -4815,10 +4818,10 @@
       <c r="M60" s="52"/>
       <c r="N60" s="50"/>
       <c r="O60" s="52"/>
-      <c r="P60" s="70"/>
+      <c r="P60" s="79"/>
     </row>
     <row r="61" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="68">
+      <c r="A61" s="77">
         <v>14</v>
       </c>
       <c r="B61" s="59" t="s">
@@ -4827,7 +4830,7 @@
       <c r="C61" s="47"/>
       <c r="D61" s="48"/>
       <c r="E61" s="49"/>
-      <c r="F61" s="68" t="s">
+      <c r="F61" s="77" t="s">
         <v>227</v>
       </c>
       <c r="G61" s="53" t="s">
@@ -4849,17 +4852,17 @@
         <v>87</v>
       </c>
       <c r="O61" s="46"/>
-      <c r="P61" s="68" t="s">
+      <c r="P61" s="77" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="69"/>
+      <c r="A62" s="78"/>
       <c r="B62" s="59"/>
       <c r="C62" s="47"/>
       <c r="D62" s="48"/>
       <c r="E62" s="49"/>
-      <c r="F62" s="69"/>
+      <c r="F62" s="78"/>
       <c r="G62" s="54"/>
       <c r="H62" s="47"/>
       <c r="I62" s="49"/>
@@ -4871,15 +4874,15 @@
       <c r="M62" s="49"/>
       <c r="N62" s="47"/>
       <c r="O62" s="49"/>
-      <c r="P62" s="69"/>
+      <c r="P62" s="78"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="69"/>
+      <c r="A63" s="78"/>
       <c r="B63" s="59"/>
       <c r="C63" s="47"/>
       <c r="D63" s="48"/>
       <c r="E63" s="49"/>
-      <c r="F63" s="69"/>
+      <c r="F63" s="78"/>
       <c r="G63" s="54"/>
       <c r="H63" s="47"/>
       <c r="I63" s="49"/>
@@ -4889,15 +4892,15 @@
       <c r="M63" s="49"/>
       <c r="N63" s="47"/>
       <c r="O63" s="49"/>
-      <c r="P63" s="69"/>
+      <c r="P63" s="78"/>
     </row>
     <row r="64" spans="1:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="70"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="59"/>
       <c r="C64" s="47"/>
       <c r="D64" s="48"/>
       <c r="E64" s="49"/>
-      <c r="F64" s="70"/>
+      <c r="F64" s="79"/>
       <c r="G64" s="55"/>
       <c r="H64" s="50"/>
       <c r="I64" s="52"/>
@@ -4907,10 +4910,10 @@
       <c r="M64" s="52"/>
       <c r="N64" s="50"/>
       <c r="O64" s="52"/>
-      <c r="P64" s="70"/>
+      <c r="P64" s="79"/>
     </row>
     <row r="65" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="68">
+      <c r="A65" s="77">
         <v>15</v>
       </c>
       <c r="B65" s="59" t="s">
@@ -4919,7 +4922,7 @@
       <c r="C65" s="47"/>
       <c r="D65" s="48"/>
       <c r="E65" s="49"/>
-      <c r="F65" s="68" t="s">
+      <c r="F65" s="77" t="s">
         <v>227</v>
       </c>
       <c r="G65" s="53" t="s">
@@ -4941,17 +4944,17 @@
         <v>89</v>
       </c>
       <c r="O65" s="46"/>
-      <c r="P65" s="68" t="s">
+      <c r="P65" s="77" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A66" s="69"/>
+      <c r="A66" s="78"/>
       <c r="B66" s="59"/>
       <c r="C66" s="47"/>
       <c r="D66" s="48"/>
       <c r="E66" s="49"/>
-      <c r="F66" s="69"/>
+      <c r="F66" s="78"/>
       <c r="G66" s="54"/>
       <c r="H66" s="47"/>
       <c r="I66" s="49"/>
@@ -4961,15 +4964,15 @@
       <c r="M66" s="49"/>
       <c r="N66" s="47"/>
       <c r="O66" s="49"/>
-      <c r="P66" s="69"/>
+      <c r="P66" s="78"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="69"/>
+      <c r="A67" s="78"/>
       <c r="B67" s="59"/>
       <c r="C67" s="47"/>
       <c r="D67" s="48"/>
       <c r="E67" s="49"/>
-      <c r="F67" s="69"/>
+      <c r="F67" s="78"/>
       <c r="G67" s="54"/>
       <c r="H67" s="47"/>
       <c r="I67" s="49"/>
@@ -4979,15 +4982,15 @@
       <c r="M67" s="49"/>
       <c r="N67" s="47"/>
       <c r="O67" s="49"/>
-      <c r="P67" s="69"/>
+      <c r="P67" s="78"/>
     </row>
     <row r="68" spans="1:16" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="70"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="59"/>
       <c r="C68" s="47"/>
       <c r="D68" s="48"/>
       <c r="E68" s="49"/>
-      <c r="F68" s="70"/>
+      <c r="F68" s="79"/>
       <c r="G68" s="55"/>
       <c r="H68" s="50"/>
       <c r="I68" s="52"/>
@@ -4997,10 +5000,10 @@
       <c r="M68" s="52"/>
       <c r="N68" s="50"/>
       <c r="O68" s="52"/>
-      <c r="P68" s="70"/>
+      <c r="P68" s="79"/>
     </row>
     <row r="69" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="68">
+      <c r="A69" s="77">
         <v>16</v>
       </c>
       <c r="B69" s="59" t="s">
@@ -5009,7 +5012,7 @@
       <c r="C69" s="47"/>
       <c r="D69" s="48"/>
       <c r="E69" s="49"/>
-      <c r="F69" s="68" t="s">
+      <c r="F69" s="77" t="s">
         <v>227</v>
       </c>
       <c r="G69" s="53" t="s">
@@ -5031,17 +5034,17 @@
         <v>91</v>
       </c>
       <c r="O69" s="46"/>
-      <c r="P69" s="68" t="s">
+      <c r="P69" s="77" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70" s="69"/>
+      <c r="A70" s="78"/>
       <c r="B70" s="59"/>
       <c r="C70" s="47"/>
       <c r="D70" s="48"/>
       <c r="E70" s="49"/>
-      <c r="F70" s="69"/>
+      <c r="F70" s="78"/>
       <c r="G70" s="54"/>
       <c r="H70" s="47"/>
       <c r="I70" s="49"/>
@@ -5051,15 +5054,15 @@
       <c r="M70" s="49"/>
       <c r="N70" s="47"/>
       <c r="O70" s="49"/>
-      <c r="P70" s="69"/>
+      <c r="P70" s="78"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71" s="69"/>
+      <c r="A71" s="78"/>
       <c r="B71" s="59"/>
       <c r="C71" s="47"/>
       <c r="D71" s="48"/>
       <c r="E71" s="49"/>
-      <c r="F71" s="69"/>
+      <c r="F71" s="78"/>
       <c r="G71" s="54"/>
       <c r="H71" s="47"/>
       <c r="I71" s="49"/>
@@ -5069,15 +5072,15 @@
       <c r="M71" s="49"/>
       <c r="N71" s="47"/>
       <c r="O71" s="49"/>
-      <c r="P71" s="69"/>
+      <c r="P71" s="78"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A72" s="70"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="59"/>
       <c r="C72" s="47"/>
       <c r="D72" s="48"/>
       <c r="E72" s="49"/>
-      <c r="F72" s="70"/>
+      <c r="F72" s="79"/>
       <c r="G72" s="55"/>
       <c r="H72" s="50"/>
       <c r="I72" s="52"/>
@@ -5087,10 +5090,10 @@
       <c r="M72" s="52"/>
       <c r="N72" s="50"/>
       <c r="O72" s="52"/>
-      <c r="P72" s="70"/>
+      <c r="P72" s="79"/>
     </row>
     <row r="73" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="68">
+      <c r="A73" s="77">
         <v>17</v>
       </c>
       <c r="B73" s="59" t="s">
@@ -5099,7 +5102,7 @@
       <c r="C73" s="47"/>
       <c r="D73" s="48"/>
       <c r="E73" s="49"/>
-      <c r="F73" s="68" t="s">
+      <c r="F73" s="77" t="s">
         <v>228</v>
       </c>
       <c r="G73" s="53" t="s">
@@ -5126,12 +5129,12 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74" s="69"/>
+      <c r="A74" s="78"/>
       <c r="B74" s="59"/>
       <c r="C74" s="47"/>
       <c r="D74" s="48"/>
       <c r="E74" s="49"/>
-      <c r="F74" s="69"/>
+      <c r="F74" s="78"/>
       <c r="G74" s="54"/>
       <c r="H74" s="47"/>
       <c r="I74" s="49"/>
@@ -5146,12 +5149,12 @@
       <c r="P74" s="81"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75" s="69"/>
+      <c r="A75" s="78"/>
       <c r="B75" s="59"/>
       <c r="C75" s="47"/>
       <c r="D75" s="48"/>
       <c r="E75" s="49"/>
-      <c r="F75" s="69"/>
+      <c r="F75" s="78"/>
       <c r="G75" s="54"/>
       <c r="H75" s="47"/>
       <c r="I75" s="49"/>
@@ -5166,12 +5169,12 @@
       <c r="P75" s="81"/>
     </row>
     <row r="76" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="70"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="59"/>
       <c r="C76" s="50"/>
       <c r="D76" s="51"/>
       <c r="E76" s="52"/>
-      <c r="F76" s="70"/>
+      <c r="F76" s="79"/>
       <c r="G76" s="55"/>
       <c r="H76" s="50"/>
       <c r="I76" s="52"/>
@@ -5192,90 +5195,90 @@
       <c r="B77" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="C77" s="71" t="s">
+      <c r="C77" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="D77" s="72"/>
-      <c r="E77" s="73"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="70"/>
       <c r="F77" s="80" t="s">
         <v>227</v>
       </c>
       <c r="G77" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="H77" s="71" t="s">
+      <c r="H77" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="I77" s="73"/>
+      <c r="I77" s="70"/>
       <c r="J77" s="84" t="s">
         <v>116</v>
       </c>
       <c r="K77" s="85"/>
-      <c r="L77" s="71" t="s">
+      <c r="L77" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="M77" s="73"/>
-      <c r="N77" s="71" t="s">
+      <c r="M77" s="70"/>
+      <c r="N77" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="O77" s="73"/>
-      <c r="P77" s="80" t="s">
-        <v>229</v>
+      <c r="O77" s="70"/>
+      <c r="P77" s="65" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="81"/>
       <c r="B78" s="99"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="76"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="73"/>
       <c r="F78" s="81"/>
       <c r="G78" s="91"/>
-      <c r="H78" s="74"/>
-      <c r="I78" s="76"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="73"/>
       <c r="J78" s="86"/>
       <c r="K78" s="87"/>
-      <c r="L78" s="74"/>
-      <c r="M78" s="76"/>
-      <c r="N78" s="74"/>
-      <c r="O78" s="76"/>
-      <c r="P78" s="81"/>
+      <c r="L78" s="71"/>
+      <c r="M78" s="73"/>
+      <c r="N78" s="71"/>
+      <c r="O78" s="73"/>
+      <c r="P78" s="66"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="81"/>
       <c r="B79" s="99"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="76"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="73"/>
       <c r="F79" s="81"/>
       <c r="G79" s="91"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="76"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="73"/>
       <c r="J79" s="86"/>
       <c r="K79" s="87"/>
-      <c r="L79" s="74"/>
-      <c r="M79" s="76"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="76"/>
-      <c r="P79" s="81"/>
+      <c r="L79" s="71"/>
+      <c r="M79" s="73"/>
+      <c r="N79" s="71"/>
+      <c r="O79" s="73"/>
+      <c r="P79" s="66"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="82"/>
       <c r="B80" s="99"/>
-      <c r="C80" s="74"/>
-      <c r="D80" s="75"/>
-      <c r="E80" s="76"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="73"/>
       <c r="F80" s="82"/>
       <c r="G80" s="92"/>
-      <c r="H80" s="77"/>
-      <c r="I80" s="79"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="76"/>
       <c r="J80" s="88"/>
       <c r="K80" s="89"/>
-      <c r="L80" s="77"/>
-      <c r="M80" s="79"/>
-      <c r="N80" s="77"/>
-      <c r="O80" s="79"/>
-      <c r="P80" s="82"/>
+      <c r="L80" s="74"/>
+      <c r="M80" s="76"/>
+      <c r="N80" s="74"/>
+      <c r="O80" s="76"/>
+      <c r="P80" s="67"/>
     </row>
     <row r="81" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="80">
@@ -5284,88 +5287,88 @@
       <c r="B81" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="74"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="76"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="73"/>
       <c r="F81" s="80" t="s">
         <v>227</v>
       </c>
       <c r="G81" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="H81" s="71" t="s">
+      <c r="H81" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="I81" s="73"/>
+      <c r="I81" s="70"/>
       <c r="J81" s="84" t="s">
         <v>117</v>
       </c>
       <c r="K81" s="85"/>
-      <c r="L81" s="71" t="s">
+      <c r="L81" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="M81" s="73"/>
-      <c r="N81" s="71" t="s">
+      <c r="M81" s="70"/>
+      <c r="N81" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="O81" s="73"/>
-      <c r="P81" s="80" t="s">
-        <v>229</v>
+      <c r="O81" s="70"/>
+      <c r="P81" s="65" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="81"/>
       <c r="B82" s="99"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="76"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="73"/>
       <c r="F82" s="81"/>
       <c r="G82" s="91"/>
-      <c r="H82" s="74"/>
-      <c r="I82" s="76"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="73"/>
       <c r="J82" s="86"/>
       <c r="K82" s="87"/>
-      <c r="L82" s="74"/>
-      <c r="M82" s="76"/>
-      <c r="N82" s="74"/>
-      <c r="O82" s="76"/>
-      <c r="P82" s="81"/>
+      <c r="L82" s="71"/>
+      <c r="M82" s="73"/>
+      <c r="N82" s="71"/>
+      <c r="O82" s="73"/>
+      <c r="P82" s="66"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="81"/>
       <c r="B83" s="99"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="76"/>
+      <c r="C83" s="71"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="73"/>
       <c r="F83" s="81"/>
       <c r="G83" s="91"/>
-      <c r="H83" s="74"/>
-      <c r="I83" s="76"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="73"/>
       <c r="J83" s="86"/>
       <c r="K83" s="87"/>
-      <c r="L83" s="74"/>
-      <c r="M83" s="76"/>
-      <c r="N83" s="74"/>
-      <c r="O83" s="76"/>
-      <c r="P83" s="81"/>
+      <c r="L83" s="71"/>
+      <c r="M83" s="73"/>
+      <c r="N83" s="71"/>
+      <c r="O83" s="73"/>
+      <c r="P83" s="66"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="82"/>
       <c r="B84" s="99"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="79"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="75"/>
+      <c r="E84" s="76"/>
       <c r="F84" s="82"/>
       <c r="G84" s="92"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="79"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="76"/>
       <c r="J84" s="88"/>
       <c r="K84" s="89"/>
-      <c r="L84" s="77"/>
-      <c r="M84" s="79"/>
-      <c r="N84" s="77"/>
-      <c r="O84" s="79"/>
-      <c r="P84" s="82"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="76"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="76"/>
+      <c r="P84" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="199">
@@ -5583,8 +5586,8 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5810,7 +5813,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5892,10 +5895,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="68">
+      <c r="A9" s="77">
         <v>1</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="77" t="s">
         <v>153</v>
       </c>
       <c r="C9" s="44" t="s">
@@ -5903,43 +5906,49 @@
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="46"/>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="77" t="s">
         <v>128</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="47"/>
       <c r="D10" s="48"/>
       <c r="E10" s="49"/>
-      <c r="F10" s="69"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="50"/>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
-      <c r="F11" s="70"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="68">
+      <c r="A12" s="77">
         <v>2</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="77" t="s">
         <v>154</v>
       </c>
       <c r="C12" s="44" t="s">
@@ -5947,31 +5956,35 @@
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="46"/>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="77" t="s">
         <v>128</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="50"/>
       <c r="D13" s="51"/>
       <c r="E13" s="52"/>
-      <c r="F13" s="70"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="68">
+      <c r="A14" s="77">
         <v>3</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="77" t="s">
         <v>156</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -5988,8 +6001,8 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="47"/>
       <c r="D15" s="48"/>
       <c r="E15" s="49"/>
@@ -6000,8 +6013,8 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="47"/>
       <c r="D16" s="48"/>
       <c r="E16" s="49"/>
@@ -6012,8 +6025,8 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="47"/>
       <c r="D17" s="48"/>
       <c r="E17" s="49"/>
@@ -6024,8 +6037,8 @@
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="47"/>
       <c r="D18" s="48"/>
       <c r="E18" s="49"/>
@@ -6036,8 +6049,8 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="47"/>
       <c r="D19" s="48"/>
       <c r="E19" s="49"/>
@@ -6048,8 +6061,8 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="50"/>
       <c r="D20" s="51"/>
       <c r="E20" s="52"/>
@@ -6060,10 +6073,10 @@
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="68">
+      <c r="A21" s="77">
         <v>4</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="77" t="s">
         <v>157</v>
       </c>
       <c r="C21" s="44" t="s">
@@ -6080,8 +6093,8 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="47"/>
       <c r="D22" s="48"/>
       <c r="E22" s="49"/>
@@ -6092,8 +6105,8 @@
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="78"/>
       <c r="C23" s="47"/>
       <c r="D23" s="48"/>
       <c r="E23" s="49"/>
@@ -6104,8 +6117,8 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="47"/>
       <c r="D24" s="48"/>
       <c r="E24" s="49"/>
@@ -6116,8 +6129,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="50"/>
       <c r="D25" s="51"/>
       <c r="E25" s="52"/>
@@ -6128,10 +6141,10 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="68">
+      <c r="A26" s="77">
         <v>5</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="77" t="s">
         <v>158</v>
       </c>
       <c r="C26" s="44" t="s">
@@ -6145,11 +6158,13 @@
       <c r="G26" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="50"/>
       <c r="D27" s="51"/>
       <c r="E27" s="52"/>
@@ -6157,7 +6172,9 @@
       <c r="G27" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -6202,8 +6219,8 @@
   </sheetPr>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Demoblaze-playwright\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3BCB69-2FE1-4F32-8C70-39747127670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BCC7F9-1670-40E0-AADF-4C6A075B84EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{739BE312-AA31-4B31-A566-DB081319E3AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{739BE312-AA31-4B31-A566-DB081319E3AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="2" r:id="rId1"/>
@@ -3523,8 +3523,8 @@
   </sheetPr>
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77:K80"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4130,8 +4130,8 @@
         <v>48</v>
       </c>
       <c r="O29" s="46"/>
-      <c r="P29" s="77" t="s">
-        <v>229</v>
+      <c r="P29" s="65" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -4150,7 +4150,7 @@
       <c r="M30" s="49"/>
       <c r="N30" s="47"/>
       <c r="O30" s="49"/>
-      <c r="P30" s="78"/>
+      <c r="P30" s="66"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="78"/>
@@ -4168,7 +4168,7 @@
       <c r="M31" s="49"/>
       <c r="N31" s="47"/>
       <c r="O31" s="49"/>
-      <c r="P31" s="78"/>
+      <c r="P31" s="66"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="79"/>
@@ -4186,7 +4186,7 @@
       <c r="M32" s="52"/>
       <c r="N32" s="50"/>
       <c r="O32" s="52"/>
-      <c r="P32" s="79"/>
+      <c r="P32" s="67"/>
     </row>
     <row r="33" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="77">
@@ -4220,8 +4220,8 @@
         <v>45</v>
       </c>
       <c r="O33" s="46"/>
-      <c r="P33" s="77" t="s">
-        <v>229</v>
+      <c r="P33" s="65" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -4240,7 +4240,7 @@
       <c r="M34" s="49"/>
       <c r="N34" s="47"/>
       <c r="O34" s="49"/>
-      <c r="P34" s="78"/>
+      <c r="P34" s="66"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="78"/>
@@ -4258,7 +4258,7 @@
       <c r="M35" s="49"/>
       <c r="N35" s="47"/>
       <c r="O35" s="49"/>
-      <c r="P35" s="78"/>
+      <c r="P35" s="66"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="79"/>
@@ -4276,7 +4276,7 @@
       <c r="M36" s="52"/>
       <c r="N36" s="50"/>
       <c r="O36" s="52"/>
-      <c r="P36" s="79"/>
+      <c r="P36" s="67"/>
     </row>
     <row r="37" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="77">
@@ -4310,8 +4310,8 @@
         <v>51</v>
       </c>
       <c r="O37" s="46"/>
-      <c r="P37" s="77" t="s">
-        <v>229</v>
+      <c r="P37" s="65" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -4330,7 +4330,7 @@
       <c r="M38" s="49"/>
       <c r="N38" s="47"/>
       <c r="O38" s="49"/>
-      <c r="P38" s="78"/>
+      <c r="P38" s="66"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="78"/>
@@ -4348,7 +4348,7 @@
       <c r="M39" s="49"/>
       <c r="N39" s="47"/>
       <c r="O39" s="49"/>
-      <c r="P39" s="78"/>
+      <c r="P39" s="66"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="79"/>
@@ -4366,7 +4366,7 @@
       <c r="M40" s="52"/>
       <c r="N40" s="50"/>
       <c r="O40" s="52"/>
-      <c r="P40" s="79"/>
+      <c r="P40" s="67"/>
     </row>
     <row r="41" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="77">
@@ -6219,7 +6219,7 @@
   </sheetPr>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Demoblaze-playwright\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BCC7F9-1670-40E0-AADF-4C6A075B84EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52CE66F-6CE6-46C2-923D-7F5836352F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{739BE312-AA31-4B31-A566-DB081319E3AB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="260">
   <si>
     <t xml:space="preserve">Pre-condition:  </t>
   </si>
@@ -1565,6 +1565,66 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1583,68 +1643,131 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1655,142 +1778,40 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1810,27 +1831,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2222,7 +2222,7 @@
   </sheetPr>
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C78" sqref="C78:C85"/>
     </sheetView>
   </sheetViews>
@@ -2276,25 +2276,25 @@
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -2326,11 +2326,11 @@
       <c r="E9" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="3" t="s">
         <v>16</v>
       </c>
@@ -2338,1118 +2338,1153 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60">
+      <c r="A10" s="57">
         <v>1</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="53" t="s">
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="54" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="54"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="55"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="55"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="56"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="44" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="53" t="s">
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="54" t="s">
         <v>30</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="54"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="55"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="54"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="55"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="55"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="56"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="44" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="53" t="s">
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="54" t="s">
         <v>34</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="54"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="55"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="60"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="54"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="55"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="55"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="56"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="56" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="53" t="s">
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="54" t="s">
         <v>93</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="54"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="55"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="55"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="56"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="44" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="53" t="s">
+      <c r="G26" s="46"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="54" t="s">
         <v>100</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="54"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="55"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="60"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="54"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="55"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="60"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="55"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="56"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="60">
+      <c r="A30" s="57">
         <v>2</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="53" t="s">
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="54" t="s">
         <v>46</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="54"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="55"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="60"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="54"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="55"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="55"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="56"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="44" t="s">
+      <c r="A34" s="57"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="53" t="s">
+      <c r="G34" s="46"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="54" t="s">
         <v>42</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="54"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="55"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
     </row>
     <row r="36" spans="1:12" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="54"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="55"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="55"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="56"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="44" t="s">
+      <c r="A38" s="57"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="53" t="s">
+      <c r="G38" s="46"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="54" t="s">
         <v>49</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="54"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="55"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="54"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="55"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="55"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="56"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="60"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="44" t="s">
+      <c r="A42" s="57"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="53" t="s">
+      <c r="G42" s="46"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="54" t="s">
         <v>53</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="60"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="54"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="55"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="60"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="54"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="55"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="60"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="55"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="56"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="60"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="44" t="s">
+      <c r="A46" s="57"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="45"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="53" t="s">
+      <c r="G46" s="46"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="54" t="s">
         <v>56</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="60"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="54"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="55"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="60"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="54"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="55"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="55"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="56"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="60"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="44" t="s">
+      <c r="A50" s="57"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="G50" s="45"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="53" t="s">
+      <c r="G50" s="46"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="54" t="s">
         <v>62</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="60"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="54"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="55"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
     </row>
     <row r="52" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="60"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="54"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="55"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="60"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="55"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="56"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="60">
+      <c r="A54" s="57">
         <v>3</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="63"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="44" t="s">
+      <c r="C54" s="42"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="G54" s="45"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="53" t="s">
+      <c r="G54" s="46"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="54" t="s">
         <v>67</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="60"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="54"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="55"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="60"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="54"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="55"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:12" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="60"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="55"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="56"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
     </row>
     <row r="58" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="60"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="56" t="s">
+      <c r="A58" s="57"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="E58" s="56" t="s">
+      <c r="E58" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="F58" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="53" t="s">
+      <c r="G58" s="46"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="54" t="s">
         <v>76</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="60"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="54"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="55"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="60"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="54"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="55"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="60"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="55"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="56"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="60"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="44" t="s">
+      <c r="A62" s="57"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="G62" s="45"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="53" t="s">
+      <c r="G62" s="46"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="54" t="s">
         <v>77</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="60"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="54"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="55"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
     </row>
     <row r="64" spans="1:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="60"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="54"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="55"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="60"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="55"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="56"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="60"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="44" t="s">
+      <c r="A66" s="57"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="G66" s="45"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="53" t="s">
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="54" t="s">
         <v>78</v>
       </c>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="60"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="54"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="55"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="60"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="54"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="55"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="60"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="55"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="56"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="60"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="44" t="s">
+      <c r="A70" s="57"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G70" s="45"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="53" t="s">
+      <c r="G70" s="46"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="54" t="s">
         <v>79</v>
       </c>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="60"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="63"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="54"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="55"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="60"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="54"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="55"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="60"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="55"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="56"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="60"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="63"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="44" t="s">
+      <c r="A74" s="57"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="G74" s="45"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="53" t="s">
+      <c r="G74" s="46"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="54" t="s">
         <v>105</v>
       </c>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
     </row>
     <row r="75" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="60"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="63"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="54"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="55"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
     </row>
     <row r="76" spans="1:12" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="60"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="54"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="55"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="60"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="55"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="56"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="60">
+      <c r="A78" s="57">
         <v>4</v>
       </c>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C78" s="62" t="s">
+      <c r="C78" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="D78" s="62" t="s">
+      <c r="D78" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="E78" s="61" t="s">
+      <c r="E78" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="F78" s="44" t="s">
+      <c r="F78" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="G78" s="45"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="53" t="s">
+      <c r="G78" s="46"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="54" t="s">
         <v>114</v>
       </c>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="60"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="54"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="55"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="60"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="54"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="55"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="60"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="55"/>
+      <c r="A81" s="57"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="53"/>
+      <c r="I81" s="56"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="60"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="44" t="s">
+      <c r="A82" s="57"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G82" s="45"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="53" t="s">
+      <c r="G82" s="46"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="54" t="s">
         <v>115</v>
       </c>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="60"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="54"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="55"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="60"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="54"/>
+      <c r="A84" s="57"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="55"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="60"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="55"/>
+      <c r="A85" s="57"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="53"/>
+      <c r="I85" s="56"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C10:C29"/>
-    <mergeCell ref="C30:C77"/>
-    <mergeCell ref="E78:E85"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="B4:H5"/>
+    <mergeCell ref="F58:H61"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="F22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="B10:B29"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="F46:H49"/>
+    <mergeCell ref="F14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="F10:H13"/>
+    <mergeCell ref="F38:H41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="A10:A29"/>
+    <mergeCell ref="F54:H57"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="F50:H53"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="F34:H37"/>
+    <mergeCell ref="F26:H29"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="E10:E21"/>
+    <mergeCell ref="D10:D21"/>
+    <mergeCell ref="F42:H45"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="F30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F70:H73"/>
+    <mergeCell ref="I70:I73"/>
+    <mergeCell ref="F66:H69"/>
+    <mergeCell ref="I66:I69"/>
+    <mergeCell ref="A30:A53"/>
+    <mergeCell ref="B54:B77"/>
+    <mergeCell ref="A54:A77"/>
+    <mergeCell ref="D58:D77"/>
     <mergeCell ref="F78:H81"/>
     <mergeCell ref="I78:I81"/>
     <mergeCell ref="B78:B85"/>
@@ -3466,46 +3501,11 @@
     <mergeCell ref="E30:E57"/>
     <mergeCell ref="D30:D57"/>
     <mergeCell ref="E58:E77"/>
-    <mergeCell ref="F70:H73"/>
-    <mergeCell ref="I70:I73"/>
-    <mergeCell ref="F66:H69"/>
-    <mergeCell ref="I66:I69"/>
-    <mergeCell ref="A30:A53"/>
-    <mergeCell ref="B54:B77"/>
-    <mergeCell ref="A54:A77"/>
-    <mergeCell ref="D58:D77"/>
-    <mergeCell ref="A10:A29"/>
-    <mergeCell ref="F54:H57"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="F50:H53"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="F34:H37"/>
-    <mergeCell ref="F26:H29"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="E10:E21"/>
-    <mergeCell ref="D10:D21"/>
-    <mergeCell ref="F42:H45"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="F30:H33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="B4:H5"/>
-    <mergeCell ref="F58:H61"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="F22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="B10:B29"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="F46:H49"/>
-    <mergeCell ref="F14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="F10:H13"/>
-    <mergeCell ref="F38:H41"/>
-    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="C10:C29"/>
+    <mergeCell ref="C30:C77"/>
+    <mergeCell ref="E78:E85"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="D22:D29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3523,8 +3523,8 @@
   </sheetPr>
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45:K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3548,41 +3548,41 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="108"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -3591,1822 +3591,1927 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="102" t="s">
+      <c r="H8" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102" t="s">
+      <c r="I8" s="74"/>
+      <c r="J8" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102" t="s">
+      <c r="K8" s="74"/>
+      <c r="L8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102" t="s">
+      <c r="M8" s="74"/>
+      <c r="N8" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="102"/>
+      <c r="O8" s="74"/>
       <c r="P8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="77">
+      <c r="A9" s="75">
         <v>1</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="77" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="100" t="s">
+      <c r="I9" s="47"/>
+      <c r="J9" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="44" t="s">
+      <c r="K9" s="79"/>
+      <c r="L9" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="46"/>
-      <c r="N9" s="44" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="46"/>
-      <c r="P9" s="65" t="s">
+      <c r="O9" s="47"/>
+      <c r="P9" s="106" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="100" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="66"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="107"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="100" t="s">
+      <c r="A11" s="76"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="101"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="66"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="107"/>
     </row>
     <row r="12" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="100" t="s">
+      <c r="A12" s="77"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="101"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="67"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="108"/>
     </row>
     <row r="13" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="77">
+      <c r="A13" s="75">
         <v>2</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="77" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="100" t="s">
+      <c r="I13" s="47"/>
+      <c r="J13" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="44" t="s">
+      <c r="K13" s="79"/>
+      <c r="L13" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="46"/>
-      <c r="N13" s="44" t="s">
+      <c r="M13" s="47"/>
+      <c r="N13" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="46"/>
-      <c r="P13" s="65" t="s">
+      <c r="O13" s="47"/>
+      <c r="P13" s="106" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="100" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="101"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="66"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="107"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="100" t="s">
+      <c r="A15" s="76"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="101"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="66"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="107"/>
     </row>
     <row r="16" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="100" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="67"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="108"/>
     </row>
     <row r="17" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="77">
+      <c r="A17" s="75">
         <v>3</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="77" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="93" t="s">
+      <c r="I17" s="47"/>
+      <c r="J17" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="94"/>
-      <c r="L17" s="44" t="s">
+      <c r="K17" s="85"/>
+      <c r="L17" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="46"/>
-      <c r="N17" s="44" t="s">
+      <c r="M17" s="47"/>
+      <c r="N17" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="46"/>
-      <c r="P17" s="65" t="s">
+      <c r="O17" s="47"/>
+      <c r="P17" s="106" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="66"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="107"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="66"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="107"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="79"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="67"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="108"/>
     </row>
     <row r="21" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="77">
+      <c r="A21" s="75">
         <v>4</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="77" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="83" t="s">
+      <c r="I21" s="47"/>
+      <c r="J21" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="K21" s="83"/>
-      <c r="L21" s="44" t="s">
+      <c r="K21" s="90"/>
+      <c r="L21" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="M21" s="46"/>
-      <c r="N21" s="44" t="s">
+      <c r="M21" s="47"/>
+      <c r="N21" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="O21" s="46"/>
-      <c r="P21" s="65" t="s">
+      <c r="O21" s="47"/>
+      <c r="P21" s="106" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="83" t="s">
+      <c r="A22" s="76"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="K22" s="83"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="66"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="107"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="78"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="83" t="s">
+      <c r="A23" s="76"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="K23" s="83"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="66"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="107"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="79"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="67"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="108"/>
     </row>
     <row r="25" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77">
+      <c r="A25" s="75">
         <v>5</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="77" t="s">
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="44" t="s">
+      <c r="H25" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="83" t="s">
+      <c r="I25" s="47"/>
+      <c r="J25" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="K25" s="83"/>
-      <c r="L25" s="44" t="s">
+      <c r="K25" s="90"/>
+      <c r="L25" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="M25" s="46"/>
-      <c r="N25" s="44" t="s">
+      <c r="M25" s="47"/>
+      <c r="N25" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="O25" s="46"/>
-      <c r="P25" s="65" t="s">
+      <c r="O25" s="47"/>
+      <c r="P25" s="106" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="78"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="83" t="s">
+      <c r="A26" s="76"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="K26" s="83"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="66"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="107"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="78"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="83" t="s">
+      <c r="A27" s="76"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="K27" s="83"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="66"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="107"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="79"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="67"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="108"/>
     </row>
     <row r="29" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="77">
+      <c r="A29" s="75">
         <v>6</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="77" t="s">
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="I29" s="46"/>
-      <c r="J29" s="93" t="s">
+      <c r="I29" s="47"/>
+      <c r="J29" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="94"/>
-      <c r="L29" s="44" t="s">
+      <c r="K29" s="85"/>
+      <c r="L29" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="46"/>
-      <c r="N29" s="44" t="s">
+      <c r="M29" s="47"/>
+      <c r="N29" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="46"/>
-      <c r="P29" s="65" t="s">
+      <c r="O29" s="47"/>
+      <c r="P29" s="106" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="78"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="66"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="107"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="78"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="66"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="107"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="79"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="67"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="108"/>
     </row>
     <row r="33" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="77">
+      <c r="A33" s="75">
         <v>7</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="77" t="s">
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="I33" s="46"/>
-      <c r="J33" s="93" t="s">
+      <c r="I33" s="47"/>
+      <c r="J33" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="K33" s="94"/>
-      <c r="L33" s="44" t="s">
+      <c r="K33" s="85"/>
+      <c r="L33" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="46"/>
-      <c r="N33" s="44" t="s">
+      <c r="M33" s="47"/>
+      <c r="N33" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="O33" s="46"/>
-      <c r="P33" s="65" t="s">
+      <c r="O33" s="47"/>
+      <c r="P33" s="106" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="66"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="107"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="66"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="107"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="79"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="67"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="108"/>
     </row>
     <row r="37" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="77">
+      <c r="A37" s="75">
         <v>8</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="77" t="s">
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="G37" s="53" t="s">
+      <c r="G37" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="44" t="s">
+      <c r="H37" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="I37" s="46"/>
-      <c r="J37" s="93" t="s">
+      <c r="I37" s="47"/>
+      <c r="J37" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="K37" s="94"/>
-      <c r="L37" s="44" t="s">
+      <c r="K37" s="85"/>
+      <c r="L37" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="46"/>
-      <c r="N37" s="44" t="s">
+      <c r="M37" s="47"/>
+      <c r="N37" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="O37" s="46"/>
-      <c r="P37" s="65" t="s">
+      <c r="O37" s="47"/>
+      <c r="P37" s="106" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="78"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="66"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="107"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="78"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="66"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="107"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="79"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="67"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="108"/>
     </row>
     <row r="41" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="77">
+      <c r="A41" s="75">
         <v>9</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="77" t="s">
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="G41" s="53" t="s">
+      <c r="G41" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="H41" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="I41" s="46"/>
-      <c r="J41" s="44" t="s">
+      <c r="I41" s="47"/>
+      <c r="J41" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="K41" s="46"/>
-      <c r="L41" s="44" t="s">
+      <c r="K41" s="47"/>
+      <c r="L41" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="M41" s="46"/>
-      <c r="N41" s="44" t="s">
+      <c r="M41" s="47"/>
+      <c r="N41" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="O41" s="46"/>
-      <c r="P41" s="77" t="s">
+      <c r="O41" s="47"/>
+      <c r="P41" s="106" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="76"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="107"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="76"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="107"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="77"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="108"/>
+    </row>
+    <row r="45" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="75">
+        <v>10</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="48"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="I45" s="47"/>
+      <c r="J45" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="85"/>
+      <c r="L45" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" s="47"/>
+      <c r="N45" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="O45" s="47"/>
+      <c r="P45" s="106" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="76"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="107"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="76"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="107"/>
+    </row>
+    <row r="48" spans="1:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="77"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="108"/>
+    </row>
+    <row r="49" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="75">
+        <v>11</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="I49" s="47"/>
+      <c r="J49" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49" s="85"/>
+      <c r="L49" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="M49" s="47"/>
+      <c r="N49" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="O49" s="47"/>
+      <c r="P49" s="75" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="78"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="78"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="78"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="78"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="79"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="79"/>
-    </row>
-    <row r="45" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="77">
-        <v>10</v>
-      </c>
-      <c r="B45" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="77" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="76"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="76"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="76"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="76"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="77"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="88"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="77"/>
+    </row>
+    <row r="53" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="75">
+        <v>12</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="G45" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="I45" s="46"/>
-      <c r="J45" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="94"/>
-      <c r="L45" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="M45" s="46"/>
-      <c r="N45" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="O45" s="46"/>
-      <c r="P45" s="77" t="s">
+      <c r="G53" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="I53" s="47"/>
+      <c r="J53" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="K53" s="85"/>
+      <c r="L53" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="M53" s="47"/>
+      <c r="N53" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="O53" s="47"/>
+      <c r="P53" s="75" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="78"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="78"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="78"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="78"/>
-    </row>
-    <row r="48" spans="1:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="79"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="98"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="50"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="79"/>
-    </row>
-    <row r="49" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="77">
-        <v>11</v>
-      </c>
-      <c r="B49" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="77" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="76"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="86"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="76"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="76"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="76"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="77"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="77"/>
+    </row>
+    <row r="57" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="75">
+        <v>13</v>
+      </c>
+      <c r="B57" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="46"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="G49" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="I49" s="46"/>
-      <c r="J49" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="K49" s="94"/>
-      <c r="L49" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="M49" s="46"/>
-      <c r="N49" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="O49" s="46"/>
-      <c r="P49" s="77" t="s">
+      <c r="G57" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="I57" s="47"/>
+      <c r="J57" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="K57" s="85"/>
+      <c r="L57" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="M57" s="47"/>
+      <c r="N57" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="O57" s="47"/>
+      <c r="P57" s="75" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="78"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="96"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="78"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="78"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="78"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="79"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="98"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="79"/>
-    </row>
-    <row r="53" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="77">
-        <v>12</v>
-      </c>
-      <c r="B53" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="77" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="76"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="76"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="76"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="86"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="76"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="77"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="89"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="77"/>
+    </row>
+    <row r="61" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="75">
+        <v>14</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="48"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="G53" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="H53" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="I53" s="46"/>
-      <c r="J53" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="K53" s="94"/>
-      <c r="L53" s="44" t="s">
+      <c r="G61" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="I61" s="47"/>
+      <c r="J61" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="K61" s="90"/>
+      <c r="L61" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M61" s="47"/>
+      <c r="N61" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="O61" s="47"/>
+      <c r="P61" s="75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="76"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="K62" s="87"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="76"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="76"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="86"/>
+      <c r="K63" s="87"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="76"/>
+    </row>
+    <row r="64" spans="1:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="77"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="51"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="77"/>
+    </row>
+    <row r="65" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="75">
+        <v>15</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="48"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="G65" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="I65" s="47"/>
+      <c r="J65" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="K65" s="85"/>
+      <c r="L65" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="M65" s="47"/>
+      <c r="N65" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="O65" s="47"/>
+      <c r="P65" s="75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="76"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="86"/>
+      <c r="K66" s="87"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="50"/>
+      <c r="P66" s="76"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="76"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="86"/>
+      <c r="K67" s="87"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="76"/>
+    </row>
+    <row r="68" spans="1:16" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="77"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="88"/>
+      <c r="K68" s="89"/>
+      <c r="L68" s="51"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="51"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="77"/>
+    </row>
+    <row r="69" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="75">
+        <v>16</v>
+      </c>
+      <c r="B69" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="48"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="G69" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="I69" s="47"/>
+      <c r="J69" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="K69" s="85"/>
+      <c r="L69" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="M69" s="47"/>
+      <c r="N69" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="O69" s="47"/>
+      <c r="P69" s="75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="76"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="86"/>
+      <c r="K70" s="87"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="50"/>
+      <c r="P70" s="76"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="76"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="86"/>
+      <c r="K71" s="87"/>
+      <c r="L71" s="48"/>
+      <c r="M71" s="50"/>
+      <c r="N71" s="48"/>
+      <c r="O71" s="50"/>
+      <c r="P71" s="76"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="77"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="88"/>
+      <c r="K72" s="89"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="51"/>
+      <c r="O72" s="53"/>
+      <c r="P72" s="77"/>
+    </row>
+    <row r="73" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="75">
+        <v>17</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="48"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="G73" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="H73" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="I73" s="47"/>
+      <c r="J73" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="K73" s="90"/>
+      <c r="L73" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="M53" s="46"/>
-      <c r="N53" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="O53" s="46"/>
-      <c r="P53" s="77" t="s">
+      <c r="M73" s="47"/>
+      <c r="N73" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="O73" s="47"/>
+      <c r="P73" s="91" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="78"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="95"/>
-      <c r="K54" s="96"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="78"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="78"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="95"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="78"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="79"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="98"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="50"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="79"/>
-    </row>
-    <row r="57" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="77">
-        <v>13</v>
-      </c>
-      <c r="B57" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="D57" s="45"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="77" t="s">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="76"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="K74" s="90"/>
+      <c r="L74" s="48"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="48"/>
+      <c r="O74" s="50"/>
+      <c r="P74" s="92"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="76"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="K75" s="90"/>
+      <c r="L75" s="48"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="48"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="92"/>
+    </row>
+    <row r="76" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="77"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="K76" s="90"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="53"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="53"/>
+      <c r="P76" s="93"/>
+    </row>
+    <row r="77" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="91">
+        <v>18</v>
+      </c>
+      <c r="B77" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="109"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="G57" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="I57" s="46"/>
-      <c r="J57" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="K57" s="94"/>
-      <c r="L57" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="M57" s="46"/>
-      <c r="N57" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="O57" s="46"/>
-      <c r="P57" s="77" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="78"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="95"/>
-      <c r="K58" s="96"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="78"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="78"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="95"/>
-      <c r="K59" s="96"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="78"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="79"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="98"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="50"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="79"/>
-    </row>
-    <row r="61" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="77">
-        <v>14</v>
-      </c>
-      <c r="B61" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="77" t="s">
+      <c r="G77" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="H77" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="I77" s="95"/>
+      <c r="J77" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="K77" s="101"/>
+      <c r="L77" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="M77" s="95"/>
+      <c r="N77" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="O77" s="95"/>
+      <c r="P77" s="106" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78" s="92"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="102"/>
+      <c r="K78" s="103"/>
+      <c r="L78" s="96"/>
+      <c r="M78" s="97"/>
+      <c r="N78" s="96"/>
+      <c r="O78" s="97"/>
+      <c r="P78" s="107"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="92"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="82"/>
+      <c r="H79" s="96"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="102"/>
+      <c r="K79" s="103"/>
+      <c r="L79" s="96"/>
+      <c r="M79" s="97"/>
+      <c r="N79" s="96"/>
+      <c r="O79" s="97"/>
+      <c r="P79" s="107"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="93"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="97"/>
+      <c r="F80" s="93"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="98"/>
+      <c r="I80" s="99"/>
+      <c r="J80" s="104"/>
+      <c r="K80" s="105"/>
+      <c r="L80" s="98"/>
+      <c r="M80" s="99"/>
+      <c r="N80" s="98"/>
+      <c r="O80" s="99"/>
+      <c r="P80" s="108"/>
+    </row>
+    <row r="81" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="91">
+        <v>19</v>
+      </c>
+      <c r="B81" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="96"/>
+      <c r="D81" s="110"/>
+      <c r="E81" s="97"/>
+      <c r="F81" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="G61" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="H61" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="I61" s="46"/>
-      <c r="J61" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="K61" s="83"/>
-      <c r="L61" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="M61" s="46"/>
-      <c r="N61" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="O61" s="46"/>
-      <c r="P61" s="77" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="78"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="K62" s="96"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="49"/>
-      <c r="P62" s="78"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="78"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="95"/>
-      <c r="K63" s="96"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="78"/>
-    </row>
-    <row r="64" spans="1:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="79"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="97"/>
-      <c r="K64" s="98"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="50"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="79"/>
-    </row>
-    <row r="65" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="77">
-        <v>15</v>
-      </c>
-      <c r="B65" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="77" t="s">
-        <v>227</v>
-      </c>
-      <c r="G65" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="H65" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="I65" s="46"/>
-      <c r="J65" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K65" s="94"/>
-      <c r="L65" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="M65" s="46"/>
-      <c r="N65" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="O65" s="46"/>
-      <c r="P65" s="77" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A66" s="78"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="96"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="49"/>
-      <c r="P66" s="78"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="78"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="95"/>
-      <c r="K67" s="96"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="49"/>
-      <c r="P67" s="78"/>
-    </row>
-    <row r="68" spans="1:16" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="79"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="97"/>
-      <c r="K68" s="98"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="79"/>
-    </row>
-    <row r="69" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="77">
-        <v>16</v>
-      </c>
-      <c r="B69" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="77" t="s">
-        <v>227</v>
-      </c>
-      <c r="G69" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="H69" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="I69" s="46"/>
-      <c r="J69" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="K69" s="94"/>
-      <c r="L69" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="M69" s="46"/>
-      <c r="N69" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="O69" s="46"/>
-      <c r="P69" s="77" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70" s="78"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="95"/>
-      <c r="K70" s="96"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="49"/>
-      <c r="P70" s="78"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71" s="78"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="95"/>
-      <c r="K71" s="96"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="49"/>
-      <c r="P71" s="78"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A72" s="79"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="97"/>
-      <c r="K72" s="98"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="79"/>
-    </row>
-    <row r="73" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="77">
-        <v>17</v>
-      </c>
-      <c r="B73" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" s="47"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="77" t="s">
-        <v>228</v>
-      </c>
-      <c r="G73" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="H73" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="I73" s="46"/>
-      <c r="J73" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="K73" s="83"/>
-      <c r="L73" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="M73" s="46"/>
-      <c r="N73" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="O73" s="46"/>
-      <c r="P73" s="80" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74" s="78"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="K74" s="83"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="81"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75" s="78"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="K75" s="83"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="49"/>
-      <c r="P75" s="81"/>
-    </row>
-    <row r="76" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="79"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="K76" s="83"/>
-      <c r="L76" s="50"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="50"/>
-      <c r="O76" s="52"/>
-      <c r="P76" s="82"/>
-    </row>
-    <row r="77" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="80">
-        <v>18</v>
-      </c>
-      <c r="B77" s="99" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="D77" s="69"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="80" t="s">
-        <v>227</v>
-      </c>
-      <c r="G77" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="H77" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="I77" s="70"/>
-      <c r="J77" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="K77" s="85"/>
-      <c r="L77" s="68" t="s">
+      <c r="G81" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="H81" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="I81" s="95"/>
+      <c r="J81" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="K81" s="101"/>
+      <c r="L81" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="M77" s="70"/>
-      <c r="N77" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="O77" s="70"/>
-      <c r="P77" s="65" t="s">
+      <c r="M81" s="95"/>
+      <c r="N81" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="O81" s="95"/>
+      <c r="P81" s="106" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A78" s="81"/>
-      <c r="B78" s="99"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="91"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="73"/>
-      <c r="J78" s="86"/>
-      <c r="K78" s="87"/>
-      <c r="L78" s="71"/>
-      <c r="M78" s="73"/>
-      <c r="N78" s="71"/>
-      <c r="O78" s="73"/>
-      <c r="P78" s="66"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79" s="81"/>
-      <c r="B79" s="99"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="81"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="73"/>
-      <c r="J79" s="86"/>
-      <c r="K79" s="87"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="73"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="73"/>
-      <c r="P79" s="66"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80" s="82"/>
-      <c r="B80" s="99"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="82"/>
-      <c r="G80" s="92"/>
-      <c r="H80" s="74"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="88"/>
-      <c r="K80" s="89"/>
-      <c r="L80" s="74"/>
-      <c r="M80" s="76"/>
-      <c r="N80" s="74"/>
-      <c r="O80" s="76"/>
-      <c r="P80" s="67"/>
-    </row>
-    <row r="81" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="80">
-        <v>19</v>
-      </c>
-      <c r="B81" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="71"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="80" t="s">
-        <v>227</v>
-      </c>
-      <c r="G81" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="H81" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="I81" s="70"/>
-      <c r="J81" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="K81" s="85"/>
-      <c r="L81" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="M81" s="70"/>
-      <c r="N81" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="O81" s="70"/>
-      <c r="P81" s="65" t="s">
-        <v>258</v>
-      </c>
-    </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A82" s="81"/>
-      <c r="B82" s="99"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="81"/>
-      <c r="G82" s="91"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="73"/>
-      <c r="J82" s="86"/>
-      <c r="K82" s="87"/>
-      <c r="L82" s="71"/>
-      <c r="M82" s="73"/>
-      <c r="N82" s="71"/>
-      <c r="O82" s="73"/>
-      <c r="P82" s="66"/>
+      <c r="A82" s="92"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="97"/>
+      <c r="F82" s="92"/>
+      <c r="G82" s="82"/>
+      <c r="H82" s="96"/>
+      <c r="I82" s="97"/>
+      <c r="J82" s="102"/>
+      <c r="K82" s="103"/>
+      <c r="L82" s="96"/>
+      <c r="M82" s="97"/>
+      <c r="N82" s="96"/>
+      <c r="O82" s="97"/>
+      <c r="P82" s="107"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A83" s="81"/>
-      <c r="B83" s="99"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="81"/>
-      <c r="G83" s="91"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="73"/>
-      <c r="J83" s="86"/>
-      <c r="K83" s="87"/>
-      <c r="L83" s="71"/>
-      <c r="M83" s="73"/>
-      <c r="N83" s="71"/>
-      <c r="O83" s="73"/>
-      <c r="P83" s="66"/>
+      <c r="A83" s="92"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="110"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="82"/>
+      <c r="H83" s="96"/>
+      <c r="I83" s="97"/>
+      <c r="J83" s="102"/>
+      <c r="K83" s="103"/>
+      <c r="L83" s="96"/>
+      <c r="M83" s="97"/>
+      <c r="N83" s="96"/>
+      <c r="O83" s="97"/>
+      <c r="P83" s="107"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84" s="82"/>
-      <c r="B84" s="99"/>
-      <c r="C84" s="74"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="82"/>
-      <c r="G84" s="92"/>
-      <c r="H84" s="74"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="88"/>
-      <c r="K84" s="89"/>
-      <c r="L84" s="74"/>
-      <c r="M84" s="76"/>
-      <c r="N84" s="74"/>
-      <c r="O84" s="76"/>
-      <c r="P84" s="67"/>
+      <c r="A84" s="93"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="98"/>
+      <c r="D84" s="111"/>
+      <c r="E84" s="99"/>
+      <c r="F84" s="93"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="98"/>
+      <c r="I84" s="99"/>
+      <c r="J84" s="104"/>
+      <c r="K84" s="105"/>
+      <c r="L84" s="98"/>
+      <c r="M84" s="99"/>
+      <c r="N84" s="98"/>
+      <c r="O84" s="99"/>
+      <c r="P84" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="199">
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="C9:E20"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="H9:I12"/>
-    <mergeCell ref="H13:I16"/>
-    <mergeCell ref="H17:I20"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L17:M20"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L9:M12"/>
-    <mergeCell ref="L13:M16"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="N9:O12"/>
-    <mergeCell ref="N13:O16"/>
-    <mergeCell ref="N17:O20"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="C21:E28"/>
+    <mergeCell ref="C29:E56"/>
+    <mergeCell ref="C57:E76"/>
+    <mergeCell ref="C77:E84"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="L73:M76"/>
+    <mergeCell ref="L77:M80"/>
+    <mergeCell ref="L81:M84"/>
+    <mergeCell ref="P77:P80"/>
+    <mergeCell ref="P81:P84"/>
+    <mergeCell ref="N81:O84"/>
+    <mergeCell ref="H77:I80"/>
+    <mergeCell ref="H81:I84"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="P25:P28"/>
+    <mergeCell ref="P29:P32"/>
+    <mergeCell ref="P33:P36"/>
+    <mergeCell ref="P37:P40"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="P45:P48"/>
+    <mergeCell ref="P49:P52"/>
+    <mergeCell ref="P73:P76"/>
+    <mergeCell ref="P53:P56"/>
+    <mergeCell ref="P57:P60"/>
+    <mergeCell ref="P61:P64"/>
+    <mergeCell ref="P65:P68"/>
+    <mergeCell ref="P69:P72"/>
+    <mergeCell ref="N45:O48"/>
+    <mergeCell ref="N49:O52"/>
+    <mergeCell ref="N53:O56"/>
+    <mergeCell ref="N57:O60"/>
+    <mergeCell ref="N61:O64"/>
+    <mergeCell ref="N65:O68"/>
+    <mergeCell ref="N69:O72"/>
+    <mergeCell ref="N73:O76"/>
+    <mergeCell ref="N77:O80"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="J77:K80"/>
+    <mergeCell ref="J81:K84"/>
+    <mergeCell ref="H21:I24"/>
+    <mergeCell ref="H25:I28"/>
+    <mergeCell ref="H29:I32"/>
+    <mergeCell ref="H33:I36"/>
+    <mergeCell ref="H37:I40"/>
+    <mergeCell ref="H41:I44"/>
+    <mergeCell ref="L21:M24"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="N21:O24"/>
+    <mergeCell ref="N25:O28"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="F77:F80"/>
+    <mergeCell ref="F81:F84"/>
+    <mergeCell ref="N29:O32"/>
+    <mergeCell ref="N33:O36"/>
+    <mergeCell ref="N37:O40"/>
+    <mergeCell ref="N41:O44"/>
+    <mergeCell ref="H45:I48"/>
+    <mergeCell ref="H49:I52"/>
+    <mergeCell ref="H53:I56"/>
+    <mergeCell ref="H57:I60"/>
+    <mergeCell ref="H61:I64"/>
+    <mergeCell ref="H65:I68"/>
+    <mergeCell ref="H69:I72"/>
+    <mergeCell ref="H73:I76"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="L65:M68"/>
+    <mergeCell ref="L69:M72"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="G69:G72"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="G77:G80"/>
+    <mergeCell ref="G81:G84"/>
+    <mergeCell ref="J17:K20"/>
+    <mergeCell ref="J23:K24"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="J29:K32"/>
+    <mergeCell ref="J33:K36"/>
+    <mergeCell ref="J37:K40"/>
+    <mergeCell ref="J41:K44"/>
+    <mergeCell ref="J45:K48"/>
+    <mergeCell ref="J49:K52"/>
+    <mergeCell ref="J53:K56"/>
+    <mergeCell ref="J57:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K64"/>
+    <mergeCell ref="J65:K68"/>
+    <mergeCell ref="J69:K72"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F17:F20"/>
     <mergeCell ref="B81:B84"/>
     <mergeCell ref="L25:M28"/>
     <mergeCell ref="L29:M32"/>
@@ -5431,146 +5536,41 @@
     <mergeCell ref="B69:B72"/>
     <mergeCell ref="B73:B76"/>
     <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="G69:G72"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="G77:G80"/>
-    <mergeCell ref="G81:G84"/>
-    <mergeCell ref="J17:K20"/>
-    <mergeCell ref="J23:K24"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="J29:K32"/>
-    <mergeCell ref="J33:K36"/>
-    <mergeCell ref="J37:K40"/>
-    <mergeCell ref="J41:K44"/>
-    <mergeCell ref="J45:K48"/>
-    <mergeCell ref="J49:K52"/>
-    <mergeCell ref="J53:K56"/>
-    <mergeCell ref="J57:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K64"/>
-    <mergeCell ref="J65:K68"/>
-    <mergeCell ref="J69:K72"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="F77:F80"/>
-    <mergeCell ref="F81:F84"/>
-    <mergeCell ref="N29:O32"/>
-    <mergeCell ref="N33:O36"/>
-    <mergeCell ref="N37:O40"/>
-    <mergeCell ref="N41:O44"/>
-    <mergeCell ref="H45:I48"/>
-    <mergeCell ref="H49:I52"/>
-    <mergeCell ref="H53:I56"/>
-    <mergeCell ref="H57:I60"/>
-    <mergeCell ref="H61:I64"/>
-    <mergeCell ref="H65:I68"/>
-    <mergeCell ref="H69:I72"/>
-    <mergeCell ref="H73:I76"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="L65:M68"/>
-    <mergeCell ref="L69:M72"/>
-    <mergeCell ref="N73:O76"/>
-    <mergeCell ref="N77:O80"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="J77:K80"/>
-    <mergeCell ref="J81:K84"/>
-    <mergeCell ref="H21:I24"/>
-    <mergeCell ref="H25:I28"/>
-    <mergeCell ref="H29:I32"/>
-    <mergeCell ref="H33:I36"/>
-    <mergeCell ref="H37:I40"/>
-    <mergeCell ref="H41:I44"/>
-    <mergeCell ref="L21:M24"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="N21:O24"/>
-    <mergeCell ref="N25:O28"/>
-    <mergeCell ref="P53:P56"/>
-    <mergeCell ref="P57:P60"/>
-    <mergeCell ref="P61:P64"/>
-    <mergeCell ref="P65:P68"/>
-    <mergeCell ref="P69:P72"/>
-    <mergeCell ref="N45:O48"/>
-    <mergeCell ref="N49:O52"/>
-    <mergeCell ref="N53:O56"/>
-    <mergeCell ref="N57:O60"/>
-    <mergeCell ref="N61:O64"/>
-    <mergeCell ref="N65:O68"/>
-    <mergeCell ref="N69:O72"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="C21:E28"/>
-    <mergeCell ref="C29:E56"/>
-    <mergeCell ref="C57:E76"/>
-    <mergeCell ref="C77:E84"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="L73:M76"/>
-    <mergeCell ref="L77:M80"/>
-    <mergeCell ref="L81:M84"/>
-    <mergeCell ref="P77:P80"/>
-    <mergeCell ref="P81:P84"/>
-    <mergeCell ref="N81:O84"/>
-    <mergeCell ref="H77:I80"/>
-    <mergeCell ref="H81:I84"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="P25:P28"/>
-    <mergeCell ref="P29:P32"/>
-    <mergeCell ref="P33:P36"/>
-    <mergeCell ref="P37:P40"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="P45:P48"/>
-    <mergeCell ref="P49:P52"/>
-    <mergeCell ref="P73:P76"/>
+    <mergeCell ref="L17:M20"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L9:M12"/>
+    <mergeCell ref="L13:M16"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="N9:O12"/>
+    <mergeCell ref="N13:O16"/>
+    <mergeCell ref="N17:O20"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C9:E20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="H9:I12"/>
+    <mergeCell ref="H13:I16"/>
+    <mergeCell ref="H17:I20"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{997952BD-5AFE-407F-B702-A426E9289B52}"/>
@@ -5586,7 +5586,7 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
@@ -5607,41 +5607,41 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="108"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -5671,59 +5671,59 @@
       <c r="A11" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="113" t="s">
         <v>250</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="122"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="115"/>
     </row>
     <row r="12" spans="1:9" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="101"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="79"/>
     </row>
     <row r="13" spans="1:9" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="78" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="101"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="79"/>
     </row>
     <row r="14" spans="1:9" ht="254.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="120" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="122"/>
       <c r="I15" t="s">
         <v>251</v>
       </c>
@@ -5732,13 +5732,13 @@
       <c r="A16" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="120" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="115"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="122"/>
       <c r="I16" t="s">
         <v>253</v>
       </c>
@@ -5747,55 +5747,55 @@
       <c r="A17" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="118"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="125"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="125"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="126" t="s">
         <v>255</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{117AFAF9-25CC-4FBA-B808-CCBDC0CBCA79}"/>
@@ -5813,7 +5813,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F14" sqref="F14:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5836,41 +5836,41 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="108"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -5895,18 +5895,18 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="77">
+      <c r="A9" s="75">
         <v>1</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="77" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="75" t="s">
         <v>128</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -5917,12 +5917,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="78"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="76"/>
       <c r="G10" s="3" t="s">
         <v>29</v>
       </c>
@@ -5931,12 +5931,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="79"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="3" t="s">
         <v>33</v>
       </c>
@@ -5945,18 +5945,18 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="77">
+      <c r="A12" s="75">
         <v>2</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="77" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="75" t="s">
         <v>128</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -5967,12 +5967,12 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="79"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="3" t="s">
         <v>99</v>
       </c>
@@ -5981,110 +5981,116 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="77">
+      <c r="A14" s="75">
         <v>3</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="53" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="54" t="s">
         <v>129</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="54"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="54"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="54"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="54"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="54"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="3" t="s">
         <v>61</v>
       </c>
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="79"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="55"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="3" t="s">
         <v>66</v>
       </c>
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="77">
+      <c r="A21" s="75">
         <v>4</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="53" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="54" t="s">
         <v>129</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -6093,66 +6099,66 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="54"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="54"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="54"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="79"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="55"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="3" t="s">
         <v>104</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="77">
+      <c r="A26" s="75">
         <v>5</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="53" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="54" t="s">
         <v>130</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -6163,12 +6169,12 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="79"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="55"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="3" t="s">
         <v>113</v>
       </c>
@@ -6178,15 +6184,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="C9:E11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A9:A11"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="C26:E27"/>
@@ -6203,6 +6200,15 @@
     <mergeCell ref="C14:E20"/>
     <mergeCell ref="F21:F25"/>
     <mergeCell ref="C21:E25"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="C9:E11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -6219,8 +6225,8 @@
   </sheetPr>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Demoblaze-playwright\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52CE66F-6CE6-46C2-923D-7F5836352F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C0ED4C-9026-4DA9-BEFD-25C86E2F4F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{739BE312-AA31-4B31-A566-DB081319E3AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{739BE312-AA31-4B31-A566-DB081319E3AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="260">
   <si>
     <t xml:space="preserve">Pre-condition:  </t>
   </si>
@@ -2222,7 +2222,7 @@
   </sheetPr>
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C78" sqref="C78:C85"/>
     </sheetView>
   </sheetViews>
@@ -3523,14 +3523,14 @@
   </sheetPr>
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45:K48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65:K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
     <col min="9" max="9" width="20.21875" customWidth="1"/>
@@ -4580,8 +4580,8 @@
         <v>64</v>
       </c>
       <c r="O49" s="47"/>
-      <c r="P49" s="75" t="s">
-        <v>229</v>
+      <c r="P49" s="106" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -4600,7 +4600,7 @@
       <c r="M50" s="50"/>
       <c r="N50" s="48"/>
       <c r="O50" s="50"/>
-      <c r="P50" s="76"/>
+      <c r="P50" s="107"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="76"/>
@@ -4618,7 +4618,7 @@
       <c r="M51" s="50"/>
       <c r="N51" s="48"/>
       <c r="O51" s="50"/>
-      <c r="P51" s="76"/>
+      <c r="P51" s="107"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="77"/>
@@ -4636,7 +4636,7 @@
       <c r="M52" s="53"/>
       <c r="N52" s="51"/>
       <c r="O52" s="53"/>
-      <c r="P52" s="77"/>
+      <c r="P52" s="108"/>
     </row>
     <row r="53" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="75">
@@ -4670,8 +4670,8 @@
         <v>70</v>
       </c>
       <c r="O53" s="47"/>
-      <c r="P53" s="75" t="s">
-        <v>229</v>
+      <c r="P53" s="106" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -4690,7 +4690,7 @@
       <c r="M54" s="50"/>
       <c r="N54" s="48"/>
       <c r="O54" s="50"/>
-      <c r="P54" s="76"/>
+      <c r="P54" s="107"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="76"/>
@@ -4708,7 +4708,7 @@
       <c r="M55" s="50"/>
       <c r="N55" s="48"/>
       <c r="O55" s="50"/>
-      <c r="P55" s="76"/>
+      <c r="P55" s="107"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="77"/>
@@ -4726,7 +4726,7 @@
       <c r="M56" s="53"/>
       <c r="N56" s="51"/>
       <c r="O56" s="53"/>
-      <c r="P56" s="77"/>
+      <c r="P56" s="108"/>
     </row>
     <row r="57" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="75">
@@ -5813,7 +5813,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F20"/>
+      <selection activeCell="F21" sqref="F21:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6040,7 +6040,9 @@
       <c r="G17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="76"/>
@@ -6052,7 +6054,9 @@
       <c r="G18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="76"/>
@@ -6064,7 +6068,9 @@
       <c r="G19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="77"/>
@@ -6076,7 +6082,9 @@
       <c r="G20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="20"/>
+      <c r="H20" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="75">
@@ -6096,7 +6104,9 @@
       <c r="G21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="76"/>
@@ -6108,7 +6118,9 @@
       <c r="G22" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="20"/>
+      <c r="H22" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="76"/>
@@ -6120,7 +6132,9 @@
       <c r="G23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="76"/>
@@ -6132,7 +6146,9 @@
       <c r="G24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="77"/>
@@ -6144,7 +6160,9 @@
       <c r="G25" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="75">

--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Demoblaze-playwright\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C0ED4C-9026-4DA9-BEFD-25C86E2F4F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152F1D0D-13E4-419C-B6AE-5A0FDFAB40EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{739BE312-AA31-4B31-A566-DB081319E3AB}"/>
+    <workbookView xWindow="5760" yWindow="3540" windowWidth="17280" windowHeight="9420" firstSheet="1" activeTab="1" xr2:uid="{739BE312-AA31-4B31-A566-DB081319E3AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="259">
   <si>
     <t xml:space="preserve">Pre-condition:  </t>
   </si>
@@ -1065,9 +1065,6 @@
   </si>
   <si>
     <t>Negative</t>
-  </si>
-  <si>
-    <t>Pass / Fail</t>
   </si>
   <si>
     <t>Test Scenario Name</t>
@@ -3523,8 +3520,8 @@
   </sheetPr>
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65:K68"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N73" sqref="N73:O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3592,7 +3589,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D8" s="74"/>
       <c r="E8" s="74"/>
@@ -3641,7 +3638,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I9" s="47"/>
       <c r="J9" s="78" t="s">
@@ -3657,7 +3654,7 @@
       </c>
       <c r="O9" s="47"/>
       <c r="P9" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -3737,7 +3734,7 @@
         <v>30</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I13" s="47"/>
       <c r="J13" s="78" t="s">
@@ -3753,7 +3750,7 @@
       </c>
       <c r="O13" s="47"/>
       <c r="P13" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -3833,7 +3830,7 @@
         <v>34</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I17" s="47"/>
       <c r="J17" s="84" t="s">
@@ -3849,7 +3846,7 @@
       </c>
       <c r="O17" s="47"/>
       <c r="P17" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -3925,7 +3922,7 @@
         <v>93</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I21" s="47"/>
       <c r="J21" s="90" t="s">
@@ -3941,7 +3938,7 @@
       </c>
       <c r="O21" s="47"/>
       <c r="P21" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4019,7 +4016,7 @@
         <v>100</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I25" s="47"/>
       <c r="J25" s="90" t="s">
@@ -4035,7 +4032,7 @@
       </c>
       <c r="O25" s="47"/>
       <c r="P25" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -4115,7 +4112,7 @@
         <v>46</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I29" s="47"/>
       <c r="J29" s="84" t="s">
@@ -4131,7 +4128,7 @@
       </c>
       <c r="O29" s="47"/>
       <c r="P29" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -4205,7 +4202,7 @@
         <v>42</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I33" s="47"/>
       <c r="J33" s="84" t="s">
@@ -4221,7 +4218,7 @@
       </c>
       <c r="O33" s="47"/>
       <c r="P33" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -4295,7 +4292,7 @@
         <v>49</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I37" s="47"/>
       <c r="J37" s="84" t="s">
@@ -4311,7 +4308,7 @@
       </c>
       <c r="O37" s="47"/>
       <c r="P37" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -4385,7 +4382,7 @@
         <v>53</v>
       </c>
       <c r="H41" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I41" s="47"/>
       <c r="J41" s="45" t="s">
@@ -4401,7 +4398,7 @@
       </c>
       <c r="O41" s="47"/>
       <c r="P41" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -4475,7 +4472,7 @@
         <v>56</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I45" s="47"/>
       <c r="J45" s="84" t="s">
@@ -4491,7 +4488,7 @@
       </c>
       <c r="O45" s="47"/>
       <c r="P45" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -4565,7 +4562,7 @@
         <v>62</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I49" s="47"/>
       <c r="J49" s="84" t="s">
@@ -4581,7 +4578,7 @@
       </c>
       <c r="O49" s="47"/>
       <c r="P49" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -4655,7 +4652,7 @@
         <v>67</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I53" s="47"/>
       <c r="J53" s="84" t="s">
@@ -4671,7 +4668,7 @@
       </c>
       <c r="O53" s="47"/>
       <c r="P53" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -4747,7 +4744,7 @@
         <v>76</v>
       </c>
       <c r="H57" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I57" s="47"/>
       <c r="J57" s="84" t="s">
@@ -4762,8 +4759,8 @@
         <v>84</v>
       </c>
       <c r="O57" s="47"/>
-      <c r="P57" s="75" t="s">
-        <v>229</v>
+      <c r="P57" s="106" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -4782,7 +4779,7 @@
       <c r="M58" s="50"/>
       <c r="N58" s="48"/>
       <c r="O58" s="50"/>
-      <c r="P58" s="76"/>
+      <c r="P58" s="107"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="76"/>
@@ -4800,7 +4797,7 @@
       <c r="M59" s="50"/>
       <c r="N59" s="48"/>
       <c r="O59" s="50"/>
-      <c r="P59" s="76"/>
+      <c r="P59" s="107"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="77"/>
@@ -4818,7 +4815,7 @@
       <c r="M60" s="53"/>
       <c r="N60" s="51"/>
       <c r="O60" s="53"/>
-      <c r="P60" s="77"/>
+      <c r="P60" s="108"/>
     </row>
     <row r="61" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="75">
@@ -4837,7 +4834,7 @@
         <v>77</v>
       </c>
       <c r="H61" s="45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I61" s="47"/>
       <c r="J61" s="90" t="s">
@@ -4852,8 +4849,8 @@
         <v>87</v>
       </c>
       <c r="O61" s="47"/>
-      <c r="P61" s="75" t="s">
-        <v>229</v>
+      <c r="P61" s="106" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -4874,7 +4871,7 @@
       <c r="M62" s="50"/>
       <c r="N62" s="48"/>
       <c r="O62" s="50"/>
-      <c r="P62" s="76"/>
+      <c r="P62" s="107"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="76"/>
@@ -4892,7 +4889,7 @@
       <c r="M63" s="50"/>
       <c r="N63" s="48"/>
       <c r="O63" s="50"/>
-      <c r="P63" s="76"/>
+      <c r="P63" s="107"/>
     </row>
     <row r="64" spans="1:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="77"/>
@@ -4910,7 +4907,7 @@
       <c r="M64" s="53"/>
       <c r="N64" s="51"/>
       <c r="O64" s="53"/>
-      <c r="P64" s="77"/>
+      <c r="P64" s="108"/>
     </row>
     <row r="65" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="75">
@@ -4929,7 +4926,7 @@
         <v>78</v>
       </c>
       <c r="H65" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I65" s="47"/>
       <c r="J65" s="84" t="s">
@@ -4944,8 +4941,8 @@
         <v>89</v>
       </c>
       <c r="O65" s="47"/>
-      <c r="P65" s="75" t="s">
-        <v>229</v>
+      <c r="P65" s="106" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -4964,7 +4961,7 @@
       <c r="M66" s="50"/>
       <c r="N66" s="48"/>
       <c r="O66" s="50"/>
-      <c r="P66" s="76"/>
+      <c r="P66" s="107"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="76"/>
@@ -4982,7 +4979,7 @@
       <c r="M67" s="50"/>
       <c r="N67" s="48"/>
       <c r="O67" s="50"/>
-      <c r="P67" s="76"/>
+      <c r="P67" s="107"/>
     </row>
     <row r="68" spans="1:16" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="77"/>
@@ -5000,7 +4997,7 @@
       <c r="M68" s="53"/>
       <c r="N68" s="51"/>
       <c r="O68" s="53"/>
-      <c r="P68" s="77"/>
+      <c r="P68" s="108"/>
     </row>
     <row r="69" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="75">
@@ -5019,7 +5016,7 @@
         <v>79</v>
       </c>
       <c r="H69" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I69" s="47"/>
       <c r="J69" s="84" t="s">
@@ -5034,8 +5031,8 @@
         <v>91</v>
       </c>
       <c r="O69" s="47"/>
-      <c r="P69" s="75" t="s">
-        <v>229</v>
+      <c r="P69" s="106" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -5054,7 +5051,7 @@
       <c r="M70" s="50"/>
       <c r="N70" s="48"/>
       <c r="O70" s="50"/>
-      <c r="P70" s="76"/>
+      <c r="P70" s="107"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="76"/>
@@ -5072,7 +5069,7 @@
       <c r="M71" s="50"/>
       <c r="N71" s="48"/>
       <c r="O71" s="50"/>
-      <c r="P71" s="76"/>
+      <c r="P71" s="107"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="77"/>
@@ -5090,7 +5087,7 @@
       <c r="M72" s="53"/>
       <c r="N72" s="51"/>
       <c r="O72" s="53"/>
-      <c r="P72" s="77"/>
+      <c r="P72" s="108"/>
     </row>
     <row r="73" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="75">
@@ -5109,7 +5106,7 @@
         <v>105</v>
       </c>
       <c r="H73" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I73" s="47"/>
       <c r="J73" s="90" t="s">
@@ -5124,8 +5121,8 @@
         <v>110</v>
       </c>
       <c r="O73" s="47"/>
-      <c r="P73" s="91" t="s">
-        <v>229</v>
+      <c r="P73" s="106" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -5146,7 +5143,7 @@
       <c r="M74" s="50"/>
       <c r="N74" s="48"/>
       <c r="O74" s="50"/>
-      <c r="P74" s="92"/>
+      <c r="P74" s="107"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="76"/>
@@ -5166,7 +5163,7 @@
       <c r="M75" s="50"/>
       <c r="N75" s="48"/>
       <c r="O75" s="50"/>
-      <c r="P75" s="92"/>
+      <c r="P75" s="107"/>
     </row>
     <row r="76" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="77"/>
@@ -5186,7 +5183,7 @@
       <c r="M76" s="53"/>
       <c r="N76" s="51"/>
       <c r="O76" s="53"/>
-      <c r="P76" s="93"/>
+      <c r="P76" s="108"/>
     </row>
     <row r="77" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="91">
@@ -5207,7 +5204,7 @@
         <v>114</v>
       </c>
       <c r="H77" s="94" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I77" s="95"/>
       <c r="J77" s="100" t="s">
@@ -5223,7 +5220,7 @@
       </c>
       <c r="O77" s="95"/>
       <c r="P77" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -5297,7 +5294,7 @@
         <v>115</v>
       </c>
       <c r="H81" s="94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I81" s="95"/>
       <c r="J81" s="100" t="s">
@@ -5313,7 +5310,7 @@
       </c>
       <c r="O81" s="95"/>
       <c r="P81" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -5672,7 +5669,7 @@
         <v>139</v>
       </c>
       <c r="B11" s="113" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C11" s="114"/>
       <c r="D11" s="114"/>
@@ -5684,7 +5681,7 @@
         <v>142</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="116"/>
       <c r="D12" s="116"/>
@@ -5696,7 +5693,7 @@
         <v>140</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C13" s="116"/>
       <c r="D13" s="116"/>
@@ -5718,14 +5715,14 @@
         <v>143</v>
       </c>
       <c r="B15" s="120" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="121"/>
       <c r="D15" s="121"/>
       <c r="E15" s="121"/>
       <c r="F15" s="122"/>
       <c r="I15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -5733,14 +5730,14 @@
         <v>144</v>
       </c>
       <c r="B16" s="120" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" s="121"/>
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="122"/>
       <c r="I16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -5772,7 +5769,7 @@
         <v>147</v>
       </c>
       <c r="B19" s="126" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="124"/>
       <c r="D19" s="124"/>
@@ -5812,7 +5809,7 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F21" sqref="F21:F25"/>
     </sheetView>
   </sheetViews>
@@ -5913,7 +5910,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -5927,7 +5924,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -5941,7 +5938,7 @@
         <v>33</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -5963,7 +5960,7 @@
         <v>92</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -5977,7 +5974,7 @@
         <v>99</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -5999,7 +5996,7 @@
         <v>39</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -6013,7 +6010,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -6027,7 +6024,7 @@
         <v>41</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -6041,7 +6038,7 @@
         <v>52</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -6055,7 +6052,7 @@
         <v>60</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -6069,7 +6066,7 @@
         <v>61</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -6083,7 +6080,7 @@
         <v>66</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -6105,7 +6102,7 @@
         <v>72</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -6119,7 +6116,7 @@
         <v>73</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -6133,7 +6130,7 @@
         <v>74</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -6147,7 +6144,7 @@
         <v>75</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -6161,7 +6158,7 @@
         <v>104</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -6183,7 +6180,7 @@
         <v>112</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -6197,7 +6194,7 @@
         <v>113</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -6243,7 +6240,7 @@
   </sheetPr>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
